--- a/record/exel_files/sample.xlsx
+++ b/record/exel_files/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\School_life_record_project\exel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\school_life_record_project_2\record\exel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8163493B-A05A-4D21-AC38-5D9D92D1E20C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C65EE95-BBDB-4716-90C9-422F4C4A859C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="5430" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="296">
   <si>
     <t xml:space="preserve">강민주 </t>
   </si>
@@ -867,6 +867,150 @@
   <si>
     <t>김서형</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고병우</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생활에 유머가 배어 있고 번뜩이는 재치와 발랄한 언행으로 학급 분위기를 항상 즐겁고 밝게 만드는 재주가 있음. 활달하고 사교적인 성격으로 친구들과 어울리는 것을 좋아하여 원만하고 폭 넓은 교우관계를 형성하고 있음. 언제나 즐겁고 활기차게 학교생활을 즐기는 긍정적인 자세를 가졌으며 청소당번이나 주번을 할 때에도 어렵거나 힘든 일을 마다하지 않고 적극적으로 하는 모습과 주위 친구들에게 피해를 끼치지 않으려 배려하는 마음이 따뜻한 학생임. 1학기 학급 부회장으로 회장을 보좌해 학급의 수업분위기나 생활태도를 올바른 방향으로 이끌 수 있도록 도우고 담임이 학급을 관리하는 데에 큰 도움을 주는 등 학급을 위해 노력하는 모습이 다른 학생들의 모범이 되었으며 자신에게 주어진 일을 꼼꼼히 완수하려는 책임감과 지도력이 강한 학생임. 1년동안 지각, 조퇴, 결석이 한 번도 없는 근면 성실한 자세로 생활하였으며 학업에도 관심이 많아 수업에 참여하는 태도가 바르고 학업과 관련한 충고들을 진지하게 받아들이며 스스로 부진한 과목들을 보완하기 위해 노력하는 긍정적인 모습을 보여줌. 이러한 모습을 보았을 때 앞으로 학업 성적이 향상될 것으로 예상됨. </t>
+  </si>
+  <si>
+    <t>금동훈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">밝고 낙천적인 성격을 가졌으며 감성이 풍부해 자신의 생각과 감정을 솔직하게 표현하고 자기 의사 표시를 분명히 하는 편임. 1년동안 지각, 조퇴, 결석이 한 번도 없는 근면 성실한 자세로 생활하였으며 집단생활에 잘 적응하여 자신이 맡은 일은 최선을 다해 성실히 수행하며 명랑하고 활발한 탓에 교우관계도 원만한 관계를 맺고 있음. 힘들거나 하기 싫은 일이더라도 먼저 적극적으로 나서서 솔선수범하는 마음가짐으로 임하는 모범적인 모습을 보여줌. 수업에 참여하는 태도가 바르고 교사의 설명을 빼놓지 않고 들으려는 자세가 바람직하며 학업과 관련한 충고들을 진지하게 받아들이며 스스로 부진한 과목들을 보완하기 위해 노력하는 자발성이 돋보임. 특히 방학 중에는 잠을 줄여서 학원과 자습 시간을 계획하는 등 성적 향상에 대한 열의가 뛰어남. 이밖에 자기주도적인 독서 활동에 참여하여 독서의 즐거움과 중요성을 인식하고 자아 발전의 계기로 삼는 모습을 보여주었음. 앞으로도 지속적인 관심을 통해 학생에게 잠재된 능력들을 이끌어낸다면 향후 학업성적 향상 및 학교생활 전반에 긍정적인 결과를 가져올 것으로 기대됨. </t>
+  </si>
+  <si>
+    <t>김남훈</t>
+  </si>
+  <si>
+    <t>활발하고 밝은 성품을 지닌 학생으로 자기주관과 의사 표현이 뚜렷하고 학급의 모든 급우들과 거리낌 없이 지내며 원만한 대인 관계를 형성함. 예의범절이 바르고 책임감이 강하여 자신에게 맡겨진 일에 최선을 다하는 성격이며 자신이 잘못한 사항에 대해서는 즉시 잘못을 깨닫고 반성하는 올바른 인격을 지니고 있음. 평소 지각이나 조퇴, 결석이 없는 바른 생활 습관으로 학교생활을 성실히 하는 태도를 지님. 타인을 이해하는 마음을 지니고 있으며 청소당번이나 주번을 할 때에도 어렵거나 힘든 일을 마다하지 않고 적극적으로 먼저 나서서하는 모습과 주위 친구들에게 피해를 끼치지 않으려 배려하는 모습을 보여줌. 합창행사를 통해 본인의 적성을 확인하고 음악진로에 대해 꿈꾸게 됨. 본인의 진로를 위해 구체적으로 어떻게 준비해야 할지에 대해 현 상황에 대하여 스스로 파악하며 명확하게 느끼면서 자신을 변화시키기 위해 노력하는 모습을 보여주고 있음. 전교 학생회 임원으로서 다양한 학교 행사를 진행하면서 생긴 갈등들을 소통을 통해 극복해 나가는 모습을 보여주었으며 또래 상담자로 활동하며 사례회의와 상담을 통해 친구들의 고민들 들어주고 상담을 하며 돕는 바람직한 모습을 보여주었음.</t>
+  </si>
+  <si>
+    <t>김주원</t>
+  </si>
+  <si>
+    <t>차분하고 온순한 성격을 가진 학생으로 선생님들에 대한 예의가 바르고 학급급우들과도 원만한 교우관계를 형성함. 평소 지각, 조퇴, 결석없이 1년 개근을 한 근면한 학생으로 책임감이 강하고 교사의 지시에 따라 맡은 임무를 즐거운 마음으로 수행하고 힘들거나 하기 싫은 일이더라도 먼저 적극적으로 나서서 솔선수범하는 마음가짐으로 임하여 담임교사에게 힘을 주는 학생임. 평소 수업에 대한 집중력이 높고 태도가 바르며 수업 중에 이해하지 못하거나 더 알고 싶은 내용에 대해선 수업 종료 후나 종례 이후에 교과 담당 교사들을 찾아뵙고 궁금한 사항들을 질문하여 이해한 후 반드시 자신의 지식으로 만들고자하는 지적 탐구심이 강함. 학교에서 진행하는 맞춤형 상담을 자발적으로 신청하여 공부습관을 바로잡고 성적 향상을 위한 계획을 세움. 학년 초 자신의 진로 계획을 세우고 사회과학 분야로의 진로리더십코스를 설계하였고 정해진 기간(2019.03.04.-2019.12.27.)동안 자기평가지 작성, 강연 참여, 상담 활동, 선행 활동 등의 다양한 프로그램에 참여하고 산출물을 제출하여 리더십 코스의 이수 기준을 충족한 모습을 통해 학교 행사에 적극적으로 참여하고 있음을 확인함.</t>
+  </si>
+  <si>
+    <t>김준우</t>
+  </si>
+  <si>
+    <t>밝고 명랑한 성격을 지니고 적극적으로 생활하는 모습이 바람직하며 예의범절이 바름. 타인을 배려하는 따뜻하고 긍정적인 태도로 폭 넓은 교우관계를 형성함. 학업적인 면에서는 학교 공부의 중요성을 인식하고 수업 시간에는 차분하게 교사의 설명을 경청하고 적극적인 참여를 하는 올바른 태도가 형성되었으며 집중력이 높아 참여하는 태도가 진지하고 모르는 부분은 알고 가려는 지적 탐구심이 강한 편임. 어떠한 과목이든 조금이라도 모르는 것이 있으면 친구들에게 주저하지않고 물어보고 덜 이해가 된 부분까지 확실하게 알려고 하는 태도가 멋있었다는 같은 반 친구의 이야기를 통해 입증되었음. 해를 거듭할 수록 개근을 하는 학생의 수가 줄어들고 있는 현실 속에서 지각, 조퇴, 결석이 한번도 없는 근면 성실한 자세로 출석에 대한 중요성을 알고 실천하여 담임으로서 격려와 칭찬을 아낌없이 주고 싶은 학생임. 앞으로도 자신의 부족한 점을 보완하기 위해 강한 의지와 열정을 가지고 꾸준히 노력하여 본인의 능력을 지속적으로 계발한다면 장차 이루고자 하는 목표를 성취할 수 있으리라 생각됨.</t>
+  </si>
+  <si>
+    <t>김하성</t>
+  </si>
+  <si>
+    <t>예의가 깍듯하고 인사성이 바르며 긍정적인 마음가짐으로 생활을 하는 모습이 바람직한 학생임. 다른 사람을 배려하는 마음이 깊고 믿음을 주는 생활태도로 인해 교우 관계가 두터우며 자기주관이 뚜렷하고 평소 지각이나 조퇴, 결석 없이 근면 성실한 자세로 생활함. 학년 초 자신의 진로 계획을 세우고 공학 분야로의 진로리더십코스를 설계하였고 정해진 기간(2019.03.04.-2019.12.27.)동안 자기평가지 작성, 강연 참여, 상담 활동, 선행 활동 등의 다양한 프로그램에 참여하고 산출물을 제출하여 리더십 코스의 이수 기준을 충족함. 계획적으로 학교 행사에 참여하는 모습을 통해 자기주도성과 성실성을 확인함. 또한 학교에서 진행하는 맞춤형 상담을 통해 자신의 진로를 명확하게 정립하게 되면서 건축사를 위한 진로를 준비하고 노력하는 모습을 보여주고 있음. 언제나 긍정적인 마음으로 생활하며 본인의 진로에 대한 명확한 목표의식과 열정을 가지고 자신의 능력을 발전시키기 위해 꾸준히 노력하는 모습을 보았을 때 앞으로의 무궁한 잠재력과 발전된 모습이 더욱 기대되는 학생임.</t>
+  </si>
+  <si>
+    <t>남건우</t>
+  </si>
+  <si>
+    <t>건강한 사고방식과 활발한 성격으로 학급의 일에 적극적으로 참여하여 협조하는 학생임. 자신의 생각과 감정을 솔직하게 잘 표현하고 집단생활에 잘 적응하여 학급 친구들과 원만한 교우관계를 유지하고 있음. 1년동안 지각, 조퇴, 결석이 한 번도 없는 근면 성실한 자세로 생활하였음. 타인을 이해하는 마음을 지니고 있으며 청소당번이나 주번을 할 때에도 어렵거나 힘든 일을 마다하지 않고 적극적으로 하는 모습이 인상적인 학생임. 학업면에서는 현재 부족한 학습 기초로 전반적으로 성적이 좋은 편은 아니나 학업상담을 통하여 자신이 부족하다고 느낀 부분에 대하여 본인이 강한 동기를 가지고 공부하는 습관을 만드려고 노력함. 1년동안 자기주도적인 독서 활동에 참여하여 국어교과의 기반을 다졌으며, 중학교 수학 문제집을 사서 수학교과의 기반을 다지기 위해 노력하고 있음. 앞으로도 자신의 부족한 점을 보완하기 위해 강한 의지와 열정을 가지고 꾸준히 노력하여 본인의 능력을 지속적으로 계발한다면 장차 이루고자 하는 목표를 성취할 수 있으리라 생각됨.</t>
+  </si>
+  <si>
+    <t>남경석</t>
+  </si>
+  <si>
+    <t>평소 성격이 조용하고 책임감이 강하여 자신이 맡은 일에 묵묵히 최선을 다하는 모습이 바람직하며 집단생활에 잘 적응하여 학급 친구들과 원만한 교우관계를 유지하고 있음. 평소 지각이나 조퇴, 결석이 없는 바른 생활 습관으로 학교생활을 성실히 하는 태도를 지님. 교사의 지시에 따라 맡은 임무를 즐거운 마음으로 수행하고 주번이나 청소 당번 시 힘들거나 하기 싫은 일이더라도 적극적으로 나서서 하는 모습이 인상적임. 학업에서는 다소 미흡한 부분이 있지만 학업과 관련된 충고들을 진지하게 받아들이며 교과 수업에 적극적으로 임하고 가능한 교사의 설명을 빼놓지 않고 들으려는 자세가 바람직함. 실제로 국어교과와 수학교과의 성적 향상을 위해 1년동안 기초학력 프로그램에 자발적으로 참여하여 자기주도적인 학습을 통해 2학기에 성적이 향상되는 모습을 보여주었음. 또한 능동적인 독서 활동에 참여하여 독서의 즐거움과 중요성을 인식하고, 자아 발전의 계기로 삼는 등 바람직한 학생임. 앞으로 자신의 부족한 점을 보완하기 위해 본인이 강한 의지를 가지고 시간계획을 철저하게 세워 자신의 능력을 지속적으로 계발한다면 장차 많은 변화가 있을 것으로 생각됨.</t>
+  </si>
+  <si>
+    <t>민동주</t>
+  </si>
+  <si>
+    <t>성격이 과묵하고 온순하며 자신이 맡은 일에 묵묵히 최선을 다하는 모습이 바람직하며 또래에 비해 생각과 행동이 의젓한 면이 있음. 지각, 조퇴, 결석없이 1년 개근을 한 근면한 자세로 생활하며 말을 많이 하는 것 보다 다른 친구들의 말을 많이 듣는 편으로 급우들과 원만한 교우관계를 유지하고 있음. 교사의 지시에 따라 맡은 임무를 즐거운 마음으로 수행하고 힘들거나 하기 싫은 일이더라도 먼저 적극적으로 나서서 솔선수범하는 마음가짐으로 임하여 담임교사에게 힘을 주는 학생임. 학업에서는 다소 미흡한 부분이 있지만 학생 스스로 부족한 점을 잘 알고 학업 향상을 위해 많은 노력을 기울이고 있으며 수업시간에도 바른 자세로 적극적으로 임하고 있음. 앞으로도 지속적인 관심을 통해 학생에게 잠재된 능력들을 이끌어준다면 향후 학업성적 향상 및 학교생활 전반에 걸쳐 긍정적인 결과를 가져올 것으로 기대됨.</t>
+  </si>
+  <si>
+    <t>박제영</t>
+  </si>
+  <si>
+    <t>성품이 밝고 온순하며 선생님들에 대한 태도가 예의바르고 학교 공동체 생활에서 본인에게 주어진 소임에 최선을 다하려는 성실한 태도를 지님. 책임감이 강하여 맡겨진 일에 최선을 다해 적극적으로 생활하며 타인을 배려하는 따뜻한 마음을 가진 학생으로 학급 친구들과 원만한 교우관계를 유지하고 있음. 학교 기본생활 습관이 올바르게 형성되어 생활자세가 단정하고 학교 규칙을 잘 지키며 평소 지각이나 조퇴, 결석 없이 성실하게 학교생활을 하는 바른생활습관을 지녔음. 교사의 지시에 따라 맡은 임무를 즐거운 마음으로 수행하고 주번이나 청소 당번 시 힘들거나 하기 싫은 일이더라도 적극적으로 나서서 솔선수범하는 마음가짐으로 임하여 담임교사에게 힘을 주는 학생임. 수업에 참여하는 태도가 진지하고 교사의 설명을 집중하여 들으려고 노력하는 자세가 바람직하며 미흡한 부분은 계획성을 가지고 체계적으로 꾸준하게 학업증진을 위해 노력함. 앞으로도 지속적인 관심을 통해 학생에게 잠재된 능력들을 이끌어낸다면 향후 학업성적 향상 및 학교생활 전반에 걸쳐 긍정적인 결과를 가져올 것으로 기대됨.</t>
+  </si>
+  <si>
+    <t>방승현</t>
+  </si>
+  <si>
+    <t xml:space="preserve">온화하고 차분하며 다른 사람을 배려하는 마음이 넓고 집단생활에 잘 적응하여 학급 동료들과 좋은 관계를 형성하고 있으며 자신의 책임을 다하는 성실하고 책임감 있는 태도를 지니고 있는 학생으로 예의범절이 바르고 올바른 인격을 지니고 있음. 매사 신뢰감 있는 행동으로 주변 분위기를 긍정적으로 변화 시키고 상대방의 의견을 존중 할 줄 알고 낙천적인 성격으로 어떤 일에 대해서도 크게 낙담하거나 실망하지 않고 다시 해보려고 노력하는 생활자세가 돋보이는 학생임. 고등학교 입학 후 학교 공부의 중요성을 인식하고 평소 수업 시간에는 차분하게 교사의 설명을 경청하며 참여하는 바른 태도를 갖고 있으며 자신의 목표를 이루기 위해 인내를 가지고 꾸준히 노력하는 자세를 보았을 때 앞으로의 변화된 모습이 더욱 기대되는 학생임. 학업 면에서 두드러진 결과를 얻지는 못했지만 학업과 관련한 충고들을 진지하게 받아들이며 스스로 부진한 과목들을 보완하기 위해 노력하는 자발성이 돋보이며, 지속적인 관심을 통해 학생에게 잠재된 능력들을 끌어준다면 향후 학업성적 향상 및 학교생활 전반에 긍정적인 결과를 가질 것으로 기대됨. </t>
+  </si>
+  <si>
+    <t>백재원</t>
+  </si>
+  <si>
+    <t>예의가 깍듯하고 인사성이 바르며 긍정적인 마음가짐으로 생활을 하는 모습이 바람직한 학생임. 다른 사람을 배려하는 마음이 깊고 믿음을 주는 생활태도로 인해 교우 관계가 두터우며 자기주관이 뚜렷하고 평소 지각이나 조퇴, 결석 없이 근면 성실한 자세로 생활함. 책임감이 강하고 학교생활에서 생기는 어려운 문제를 끝까지 해결하려는 근성이 있으며 자기 나름의 목표를 세우고 꾸준히 노력하는 외유내강형의 강한 주도성을 가진 학생임. 2학기 학급 회장으로서 합리적이고 뛰어난 리더십을 바탕으로 학급의 수업분위기나 생활태도를 올바른 방향으로 이끌 수 있도록 도왔으며 담임교사의 전달사항을 학급에 효과적으로 전달하여 담임이 학급을 관리할 수 있도록 자신의 임무를 수행하는 모습이 다른 학생들의 모범이 되는 학생임. 평소 운동을 좋아해 체육 수업시간에 뛰어난 집중력을 보이며, 활발하게 참여하였으며 교내 달리기 경기에서 학급 대표로 참가하는 등의 높은 운동기능을 보임.</t>
+  </si>
+  <si>
+    <t>오상호</t>
+  </si>
+  <si>
+    <t>구김살 없는 밝고 명랑한 성격을 가졌으며 긍정적인 마음가짐으로 생활하는 모습이 바람직한 학생임. 자신의 생각과 감정을 솔직하게 표현하고 집단생활에 잘 적응하였으며 웃는 모습으로 친구들을 대하는 모습으로 교우관계가 좋은 편임. 평소 청소당번이나 주번을 할 때에도 어렵거나 힘든 일을 마다하지 않고 적극적으로 하는 모습과 주위 친구들에게 피해를 끼치지 않으려 배려하는 마음이 따뜻한 학생임. 1학기 학급 반장으로서 합리적이고 뛰어난 리더십을 바탕으로 학급의 수업분위기나 생활태도를 올바른 방향으로 이끌 수 있도록 도왔으며 담임교사의 전달사항을 학급에 효과적으로 전달하여 담임이 학급을 관리 할 수 있도록 자신의 임무를 수행하는 모습이 다른 학생들의 모범이 되는 학생임. 매 시간 수업에 참여하는 태도가 진지하고 교사의 설명을 집중하여 들으려고 노력하는 자세가 바람직하며 미흡한 부분은 계획성을 가지고 체계적으로 꾸준하게 학업증진을 위해 노력하는 모습을 보여줌. 이같이 학업에 대한 꾸준하고 적극적인 노력으로 인해 학업에서 상위권의 성적을 유지하고 있는 우수한 학생이며 학업과 관련하여 이기적이거나 거만한 태도가 없고, 겸손하고 이해심이 깊은 학생임.</t>
+  </si>
+  <si>
+    <t>오승준</t>
+  </si>
+  <si>
+    <t>유쾌하고 활동적이며 에너지가 넘치는 학생으로 다른 사람과의 대화에서 순발력과 재치가 있으며 심성이 착하고 평범한 것보다는 독특한 것을 선호함. 항상 웃는 모습으로 상대방을 대하고 매사에 긍정적인 언행으로 주위의 분위기를 밝게 만드는 능력이 있으며, 상대방의 이야기를 잘 들어 주고 배려할 줄 아는 학생으로 폭넓은 교우 관계를 형성하고 있음. 과 수업 시 가능한 교사의 설명을 집중하여 들으려고 노력하는 자세가 바람직하며 수업 중에 이해하지 못하거나 더 알고 싶은 내용에 대하여 수업 종료 후나 종례 이후에 교과 담당 교사들을 찾아뵙고 궁금한 사항들을 질문하는 모습을 종종 확인 함. 본인이 관심과 흥미를 가지고 있는 분야에 대해서 적극적이고 열정적인 자세를 지니고 자신의 소질 계발을 위해 적극적으로 노력하는 모습이 돋보이며 스스로 부족한 점을 보완하려는 강한 의지를 가지고 열심히 노력하려는 모습을 보았을 때 앞으로 더욱더 긍정적인 변화가 기대되는 학생임. 평소 운동을 좋아해 체육 수업시간에 뛰어난 집중력을 보이며, 활발하게 참여하였으며 교내 달리기 경기에서 학급 대표로 참가하는 등의 높은 운동기능을 보임.</t>
+  </si>
+  <si>
+    <t>윤상훈</t>
+  </si>
+  <si>
+    <t>성격이 조용하고 온순하며 자신이 맡은 일에 묵묵히 최선을 다하는 모습이 바람직함. 수줍음이 있는 편이나 선생님들에 대한 예의범절이 바르며 행동을 신중하게 하려는 세심한 모습을 보임. 평소 지각, 조퇴, 결석이 없는 근면 성실한 자세로 생활하였으며 청소당번이나 주번을 할 때에도 어렵거나 힘든 일을 마다하지 않고 적극적으로 하는 모습과 주위 친구들에게 피해를 끼치지 않으려 배려하는 마음이 따뜻한 학생임. 진지하고 능동적인 수업 태도와 높은 학구열로 한결같이 학업에 임하는 모습이 매우 인상적이며 이같이 학업에 대한 꾸준하고 적극적인 노력으로 인해 학업에서 상위권의 성적을 유지하고 있는 우수한 학생임. 자율적으로 운영된 자기주도학습 프로그램에 총 324시간을 참여한 부분을 통해 성실함 또한 확인할 수 있었음. 교내 미술축제에서 선생님들의 모습을 캐리커쳐 함으로써 상당한 예술적 감각 또한 지니고 있음을 확인함.</t>
+  </si>
+  <si>
+    <t>이수용</t>
+  </si>
+  <si>
+    <t>성격이 온순하고 차분하며 언제나 조용하게 자신의 책임을 다하는 성실하고 책임감 있는 태도를 지님. 선생님들에 대한 예의범절이 바르며 등교지도를 하시는 선생님들께서 교내에서 인사성이 가장 바른 아이라 칭찬할 정도로 활기차게 인사를 잘함. 또한 매사에 신중하게 행동하려는 세심한 모습을 보임. 1년 동안 지각, 조퇴, 결석이 한 번도 없는 근면 성실한 자세로 학교를 다닌 바른 생활 습관을 가진 학생이며 교사의 지시에 따라 맡은 임무를 즐거운 마음으로 수행하고 주번이나 청소 당번 시 힘들거나 하기 싫은 일이더라도 묵묵히 하는 모습이 인상적인 학생임. 학습의욕이 높아 교과 수업 시 수업에 대한 집중력이 높고 적극적으로 수업에 임하는 바람직한 학습태도를 지니고 있으며 학업에 있어서 미흡한 부분은 본인이 강한 동기를 가지고 스스로 공부하는 습관을 만들어 노력하였음. 앞으로도 본인이 강한 동기를 가지고 지속적으로 학업증진을 위해 노력한다면 크게 향상되리라 기대됨.</t>
+  </si>
+  <si>
+    <t>이승찬</t>
+  </si>
+  <si>
+    <t>온화하고 차분하며 조용히 자신의 책임을 다하는 성실하고 책임감 있는 태도를 지님. 학급 친구들과의 관계에서 자신의 의견을 내세우기보다 다른 사람의 의견을 수용하고 존중하고자 하는 모습을 보여주었으며 친구들을 대할 때에 편견 없이 공정하게 대하여 폭 넓은 교우관계를 형성함. 1년동안 지각, 조퇴, 결석이 한 번도 없는 근면 성실한 자세로 생활하였으며 학업에도 관심이 많아 수업에 참여하는 태도가 바르고 교사의 설명을 빼놓지 않고 들으려는 자세가 바람직하며 학업과 관련한 충고들을 진지하게 받아들이며 스스로 부진한 과목들을 보완하기 위해 노력하는 자발성이 돋보임. 학교에서 진행되는 행사에 적극적으로 참여하는 등 앞으로도 지속적인 관심을 통해 학생에게 잠재된 능력들을 이끌어낸다면 향후 학업성적 향상 및 학교생활 전반에 긍정적인 결과를 가져올 것으로 기대됨.</t>
+  </si>
+  <si>
+    <t>이재형</t>
+  </si>
+  <si>
+    <t>구김살 없는 밝고 명랑한 성격을 가졌으며 선하고 긍정적인 생활태도를 지니고 있음. 예의범절이 바르고 자신이 잘못한 사항에 대해서는 즉시 잘못을 깨닫고 반성하는 올바른 인격을 지니고 있으며 친구들과의 관계에서는 명랑하고 활발한 탓에 원만한 교우 관계를 맺고 있음. 청소당번이나 주번을 할 때에도 어렵거나 힘든 일을 마다하지 않고 먼저 적극적으로 나서서 솔선수범하는 마음가짐으로 임하여 담임교사에게 힘을 주는 학생임. 학업 성적이 전반적으로 뛰어난 편은 아니나, 학생 스스로 부족한 점을 잘 알고 있으며 학업상담을 통해 학업의 중요성을 크게 느끼면서 본인 스스로 동기를 가지고 공부하는 습관을 만들고, 학업을 향상시키기 위해 노력하는 모습을 보여줌. 이러한 긍정적인 모습을 보았을 때 앞으로 학업 성적이 향상될 것으로 예상되며 이후에도 지속적인 관심을 통해 학생에게 잠재된 능력들을 이끌어주는 체계적이고 세심한 배려가 필요하다고 생각됨.</t>
+  </si>
+  <si>
+    <t>임윤우</t>
+  </si>
+  <si>
+    <t xml:space="preserve">성품이 밝고 온순하며 친구들과의 관계에서는 명랑하고 활발한 탓에 원만한 교우관계를 유지함. 교사의 지시에 따라 맡은 임무를 성실히 수행하고 자신이 잘못한 사항에 대해서는 즉시 잘못을 깨닫고 반성하는 올바른 인격을 지니고 있음. 평소 지각이나 조퇴, 결석이 없는 바른 생활 습관으로 학교생활을 성실히 하는 태도를 지님. 학업에서는 전반적으로 성적이 미흡한 면을 보이고 있으나 학생 스스로 부족한 점을 잘 알고 이를 개선하기 위해 노력하고 있으며 이후에도 부족한 부분은 방과 후 수업이나 자기주도학습 등 본인 스스로 공부하는 습관을 만들고 학습의 기초를 쌓기 위해 노력한다면 앞으로 교과 성적이 향상되는 긍정적인 결과를 가져올 것으로 기대됨. 언제나 성실하게 모든 것에 최선을 다하려는 자세로 학교생활을 하고 있으며 앞으로 자신의 부족한 점을 보완하기 위해 본인이 강한 의지를 가지고 시간계획을 철저하게 세워 자신의 능력을 지속적으로 계발한다면 장차 많은 변화가 있을 것으로 생각됨. </t>
+  </si>
+  <si>
+    <t>정보윤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">타인을 존중하고 다른 사람을 배려하는 마음이 있으며 집단생활에 잘 적응하여 학급 동료들과 원만한 관계를 유지하고 있는 학생으로 예의범절이 바르고 올바른 인격을 지니고 있음. 수업시간뿐만 아니라 쉬는 시간, 조례, 종례 시간에도 균형감 있고 밝은 학급 분위기를 이끌었으며, 면학적인 분위기를 이끄는데 앞장섬. 학교 공부에 열의를 갖고 학습 계획을 세워 실천하였고, 쉬는 시간이나 점심시간 중에도 교실에 앉아 자기 공부를 착실히 하는 모습을 교실 지도 중 종종 확인함. '2019 부지런한 인간상'을 위한 자기 주도 역량 우수 평가제 활동 중 3개 분야에서 우수한 활동을 보였고 학년 초 자신의 진로 계획을 세우고 의학 분야로의 진로리더십코스를 설계하여 정해진 기간(2019.03.04.-2019.12.27.)동안 자기평가지 작성, 강연 참여, 상담 활동, 선행 활동 등의 다양한 프로그램에 참여하고 산출물을 제출하여 리더십 코스의 이수 기준을 충족함. 학교에서의 교과 외 활동인 환경미화, 학급 자치활동, 봉사활동 및 진로활동, 학교 동아리 발표회, 체육활동 등 각종 행사와 학급 활동에 능동적으로 참여하고 매번 최선을 다하려는 책임감 있는 자세를 보였음. </t>
+  </si>
+  <si>
+    <t>현민준</t>
+  </si>
+  <si>
+    <t>평소엔 조용하고 말수가 적은 성격이지만 급우들과 어울릴 때는 활기차게 활동하며 원만한 대인 관계를 형성하는 학생임. 학급 친구들과의 관계에서 자신의 의견을 내세우기보다 다른 사람의 의견을 수용하고 존중하여 갈등이 일어나는 것을 방지하는 모습을 통하여 단체생활을 함에 있어 어긋나지 않고 조화로운 관계를 유지하고자 노력하는 모습을 보임. 친구들을 대할 때에 편견 없이 공정하게 대하고 자신이 가진 것을 아낌없이 베풀며 상대방의 이야기를 잘 들어 주고 배려할 줄 아는 학생으로 폭넓은 교우 관계를 형성하고 있음. 창의성을 요하는 학습에 열정적이며, 감각적인 자료를 바탕으로 상상력과 개성을 발휘하는 과제와 발표 수업에 흥미를 보임. 여러차례 상담을 통해 자신의 진로를 명확하게 정립하게 되면서 건축 공학을 위한 진로를 준비하고 노력하는 모습을 보여주고 있음. 언제나 긍정적인 마음으로 생활하며 본인의 진로에 대한 명확한 목표의식과 열정을 가지고 자신의 능력을 발전시키기 위해 꾸준히 노력하는 모습을 보았을 때 앞으로의 무궁한 잠재력과 발전된 모습이 더욱 기대되는 학생임.</t>
+  </si>
+  <si>
+    <t>홍민기</t>
+  </si>
+  <si>
+    <t>성격이 과묵하고 온순하며 자신이 맡은 일에 묵묵히 최선을 다하는 모습이 바람직하며 또래에 비해 생각과 행동이 의젓한 면이 있음. 지각, 조퇴, 결석없이 1년 개근을 한 근면한 자세로 생활하며 말을 많이 하는 것 보다 다른 친구들의 말을 많이 듣는 편으로 급우들과 원만한 교우관계를 유지하고 있음. 교사의 지시에 따라 맡은 임무를 즐거운 마음으로 수행하고 학급 특별구역 청소 당번에 스스로 지원하여 1년동안 특별구역을 책임지고 청소하는 등 힘들거나 하기 싫은 일이더라도 먼저 적극적으로 나서서 솔선수범하는 마음가짐으로 임하여 담임교사에게 힘을 주는 학생임. 학업에서는 다소 미흡한 부분이 있지만 학생 스스로 부족한 점을 잘 알고 학업 향상을 위해 많은 노력을 기울이고 있으며 수업시간에도 바른 자세로 적극적으로 임하고 있음. 앞으로도 지속적인 관심을 통해 학생에게 잠재된 능력들을 이끌어준다면 향후 학업성적 향상 및 학교생활 전반에 걸쳐 긍정적인 결과를 가져올 것으로 기대됨.</t>
+  </si>
+  <si>
+    <t>이민섭</t>
+  </si>
+  <si>
+    <t>유쾌하고 명랑한 성격을 갖고 있으며 축구를 좋아하여 이를 통해 폭넓은 교우관계를 형성하고 있고 특히 교우관계를 매우 중요시 생각하는 성향이 있어 매사에 본인이 먼저 배려하는 모습이 눈에 보임. 친구들 사이에서 생각이 기발하고 유머 감각이 풍부하며, 언어 전달력이 뛰어나다는 평가를 받음. 또래보다 한 살이 많아 학년 초에는 우려되는 부분이 있었지만, 형으로서 합리적이고 뛰어난 리더십을 바탕으로 학급의 수업분위기나 생활태도를 올바른 방향으로 이끌 수 있도록 도왔으며 그 결과 학생들이 가장 모범적인 학생으로 평가 하는 등 타의 모범이 되는 학생임. 학급 특별구역 청소 당번에 스스로 지원하여 1년동안 특별구역을 책임지고 청소하는 등 솔선수범하는 마음가짐으로 임하여 담임교사에게 힘을 주는 학생임. 학교에서 진행하는 맞춤형 상담을 통해 자신의 진로를 명확하게 정립하게 되면서 게임 프로그래밍을 위한 진로를 준비하고 노력하는 모습을 보여주고 있음. 언제나 긍정적인 마음으로 생활하며 본인의 진로에 대한 명확한 목표의식과 열정을 가지고 자신의 능력을 발전시키기 위해 꾸준히 노력하는 모습을 보았을 때 앞으로의 무궁한 잠재력과 발전된 모습이 더욱 기대되는 학생임.</t>
+  </si>
+  <si>
+    <t>온승현</t>
+  </si>
+  <si>
+    <t>학기 초 전입을 오게되어 적응하기 힘듬에도 불구하고 특유의 활발하고 밝은 성품으로 학급의 모든 급우들과 거리낌 없이 지내며 원만한 대인 관계를 형성함. 자기주관과 의사 표현이 뚜렷하고 선하고 긍정적인 사고를 가지고 있으며 잘못된 점을 지적하면 즉시 수긍하고 잘못을 뉘우치며 반성하는 모습이 바람직함. 꾸준한 노력과 올바른 학습 습관 덕분에 학업 성적이 전반적으로 향상된 편이며, 학생 스스로 부족한 점을 잘 알고 있으며 학업상담을 통해 학업의 중요성을 크게 느끼면서 스스로 강한 동기를 가지고 공부하는 습관을 만들고, 학업을 향상시키려는 변화된 모습을 보여줌. 개인 상담 시 담임교사의 이야기를 주의 깊게 듣고 생활태도면에서 아쉬운 부분들을 개선하기 위해 담임교사의 제안이나 충고를 성실히 따르려는 진솔한 모습을 보임. 이후에도 지속적인 관심과 보살핌을 통해 학생을 이끌어준다면 향후 학업과 학교생활 전반에 걸쳐 긍정적인 변화를 가져올 것으로 보여짐.</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B139"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2247,6 +2391,198 @@
         <v>246</v>
       </c>
     </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>248</v>
+      </c>
+      <c r="B140" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>250</v>
+      </c>
+      <c r="B141" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>252</v>
+      </c>
+      <c r="B142" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>254</v>
+      </c>
+      <c r="B143" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>256</v>
+      </c>
+      <c r="B144" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>260</v>
+      </c>
+      <c r="B146" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>262</v>
+      </c>
+      <c r="B147" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>264</v>
+      </c>
+      <c r="B148" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>266</v>
+      </c>
+      <c r="B149" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>268</v>
+      </c>
+      <c r="B150" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>270</v>
+      </c>
+      <c r="B151" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>272</v>
+      </c>
+      <c r="B152" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>274</v>
+      </c>
+      <c r="B153" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>276</v>
+      </c>
+      <c r="B154" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>278</v>
+      </c>
+      <c r="B155" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>280</v>
+      </c>
+      <c r="B156" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>282</v>
+      </c>
+      <c r="B157" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>284</v>
+      </c>
+      <c r="B158" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>286</v>
+      </c>
+      <c r="B159" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>288</v>
+      </c>
+      <c r="B160" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>290</v>
+      </c>
+      <c r="B161" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>292</v>
+      </c>
+      <c r="B162" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>294</v>
+      </c>
+      <c r="B163" t="s">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record/exel_files/sample.xlsx
+++ b/record/exel_files/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\school_life_record_project_2\record\exel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C65EE95-BBDB-4716-90C9-422F4C4A859C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407316AF-198E-4F87-A1D1-01D8D0F00FDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5430" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HR" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="302">
   <si>
     <t xml:space="preserve">강민주 </t>
   </si>
@@ -1011,13 +1011,72 @@
   </si>
   <si>
     <t>학기 초 전입을 오게되어 적응하기 힘듬에도 불구하고 특유의 활발하고 밝은 성품으로 학급의 모든 급우들과 거리낌 없이 지내며 원만한 대인 관계를 형성함. 자기주관과 의사 표현이 뚜렷하고 선하고 긍정적인 사고를 가지고 있으며 잘못된 점을 지적하면 즉시 수긍하고 잘못을 뉘우치며 반성하는 모습이 바람직함. 꾸준한 노력과 올바른 학습 습관 덕분에 학업 성적이 전반적으로 향상된 편이며, 학생 스스로 부족한 점을 잘 알고 있으며 학업상담을 통해 학업의 중요성을 크게 느끼면서 스스로 강한 동기를 가지고 공부하는 습관을 만들고, 학업을 향상시키려는 변화된 모습을 보여줌. 개인 상담 시 담임교사의 이야기를 주의 깊게 듣고 생활태도면에서 아쉬운 부분들을 개선하기 위해 담임교사의 제안이나 충고를 성실히 따르려는 진솔한 모습을 보임. 이후에도 지속적인 관심과 보살핌을 통해 학생을 이끌어준다면 향후 학업과 학교생활 전반에 걸쳐 긍정적인 변화를 가져올 것으로 보여짐.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">거짓이 없고 진실하며 꾸밈없이 행동하며 늘 표정이 밝음. </t>
+  </si>
+  <si>
+    <r>
+      <t>거짓이 없고 솔직하며 매사에 성실히 임함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>거짓이 없고 진실하며 꾸밈없이 행동하며 표정이 밝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>거짓이 없고 진실하며 친구들과 잘 어울림</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거짓이 없고 솔직하게 행동하며 매사에 성실히 임함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거짓이 없고 솔직하게 행동하며 인사성이 좋음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1040,6 +1099,27 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="한양신명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1061,13 +1141,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1349,18 +1432,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="255.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1376,7 +1459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1384,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1392,7 +1475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1400,7 +1483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1408,7 +1491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1424,7 +1507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1432,7 +1515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1440,7 +1523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1448,7 +1531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1456,7 +1539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1464,7 +1547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1472,7 +1555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1480,7 +1563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1488,7 +1571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1496,7 +1579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1504,7 +1587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1512,7 +1595,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1520,7 +1603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1528,7 +1611,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1536,7 +1619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1544,7 +1627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1552,7 +1635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -1560,7 +1643,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1568,7 +1651,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1576,142 +1659,142 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="B28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="B29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="B30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="B31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="B32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="B49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="B50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="B51" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="B52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="B53" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="B54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -1719,7 +1802,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -1727,7 +1810,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -1735,7 +1818,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -1743,7 +1826,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -1751,7 +1834,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -1759,7 +1842,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -1767,7 +1850,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -1775,7 +1858,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -1783,7 +1866,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="99">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -1791,7 +1874,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>99</v>
       </c>
@@ -1799,7 +1882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -1807,7 +1890,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>104</v>
       </c>
@@ -1815,7 +1898,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>105</v>
       </c>
@@ -1823,7 +1906,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="115.5">
       <c r="A69" t="s">
         <v>107</v>
       </c>
@@ -1831,7 +1914,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>108</v>
       </c>
@@ -1839,7 +1922,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="115.5">
       <c r="A71" t="s">
         <v>110</v>
       </c>
@@ -1847,7 +1930,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>111</v>
       </c>
@@ -1855,7 +1938,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="132" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="132">
       <c r="A73" t="s">
         <v>113</v>
       </c>
@@ -1863,7 +1946,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>114</v>
       </c>
@@ -1871,7 +1954,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -1879,7 +1962,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -1887,7 +1970,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -1895,7 +1978,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -1903,7 +1986,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -1911,7 +1994,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>130</v>
       </c>
@@ -1919,7 +2002,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>132</v>
       </c>
@@ -1927,7 +2010,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>133</v>
       </c>
@@ -1935,7 +2018,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>135</v>
       </c>
@@ -1943,7 +2026,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>137</v>
       </c>
@@ -1951,7 +2034,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>139</v>
       </c>
@@ -1959,7 +2042,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>141</v>
       </c>
@@ -1967,7 +2050,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>143</v>
       </c>
@@ -1975,7 +2058,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>145</v>
       </c>
@@ -1983,7 +2066,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>147</v>
       </c>
@@ -1991,7 +2074,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>149</v>
       </c>
@@ -1999,7 +2082,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>151</v>
       </c>
@@ -2007,7 +2090,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>153</v>
       </c>
@@ -2015,7 +2098,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>155</v>
       </c>
@@ -2023,7 +2106,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>157</v>
       </c>
@@ -2031,7 +2114,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>159</v>
       </c>
@@ -2039,7 +2122,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>161</v>
       </c>
@@ -2047,7 +2130,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>163</v>
       </c>
@@ -2055,7 +2138,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>165</v>
       </c>
@@ -2063,7 +2146,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>167</v>
       </c>
@@ -2071,7 +2154,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>169</v>
       </c>
@@ -2079,7 +2162,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>171</v>
       </c>
@@ -2087,7 +2170,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>173</v>
       </c>
@@ -2095,7 +2178,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>175</v>
       </c>
@@ -2103,7 +2186,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>176</v>
       </c>
@@ -2111,7 +2194,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>178</v>
       </c>
@@ -2119,7 +2202,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>180</v>
       </c>
@@ -2127,7 +2210,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>182</v>
       </c>
@@ -2135,7 +2218,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>184</v>
       </c>
@@ -2143,7 +2226,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>186</v>
       </c>
@@ -2151,7 +2234,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>188</v>
       </c>
@@ -2159,7 +2242,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>190</v>
       </c>
@@ -2167,7 +2250,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>192</v>
       </c>
@@ -2175,7 +2258,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>194</v>
       </c>
@@ -2183,7 +2266,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>196</v>
       </c>
@@ -2191,7 +2274,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>198</v>
       </c>
@@ -2199,7 +2282,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>200</v>
       </c>
@@ -2207,7 +2290,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>202</v>
       </c>
@@ -2215,7 +2298,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>204</v>
       </c>
@@ -2223,7 +2306,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>206</v>
       </c>
@@ -2231,7 +2314,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>208</v>
       </c>
@@ -2239,7 +2322,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>210</v>
       </c>
@@ -2247,7 +2330,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>212</v>
       </c>
@@ -2255,7 +2338,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>214</v>
       </c>
@@ -2263,7 +2346,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>216</v>
       </c>
@@ -2271,7 +2354,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>218</v>
       </c>
@@ -2279,7 +2362,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>220</v>
       </c>
@@ -2287,7 +2370,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>222</v>
       </c>
@@ -2295,7 +2378,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>224</v>
       </c>
@@ -2303,7 +2386,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>226</v>
       </c>
@@ -2311,7 +2394,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>228</v>
       </c>
@@ -2319,7 +2402,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>230</v>
       </c>
@@ -2327,7 +2410,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>232</v>
       </c>
@@ -2335,7 +2418,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>234</v>
       </c>
@@ -2343,7 +2426,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>236</v>
       </c>
@@ -2351,7 +2434,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>238</v>
       </c>
@@ -2359,7 +2442,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>240</v>
       </c>
@@ -2367,7 +2450,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>242</v>
       </c>
@@ -2375,7 +2458,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>245</v>
       </c>
@@ -2383,7 +2466,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>247</v>
       </c>
@@ -2391,7 +2474,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>248</v>
       </c>
@@ -2399,7 +2482,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>250</v>
       </c>
@@ -2407,7 +2490,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>252</v>
       </c>
@@ -2415,7 +2498,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>254</v>
       </c>
@@ -2423,7 +2506,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>256</v>
       </c>
@@ -2431,7 +2514,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>258</v>
       </c>
@@ -2439,7 +2522,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>260</v>
       </c>
@@ -2447,7 +2530,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>262</v>
       </c>
@@ -2455,7 +2538,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>264</v>
       </c>
@@ -2463,7 +2546,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>266</v>
       </c>
@@ -2471,7 +2554,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>268</v>
       </c>
@@ -2479,7 +2562,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>270</v>
       </c>
@@ -2487,7 +2570,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>272</v>
       </c>
@@ -2495,7 +2578,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>274</v>
       </c>
@@ -2503,7 +2586,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>276</v>
       </c>
@@ -2511,7 +2594,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>278</v>
       </c>
@@ -2519,7 +2602,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>280</v>
       </c>
@@ -2527,7 +2610,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>282</v>
       </c>
@@ -2535,7 +2618,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>284</v>
       </c>
@@ -2543,7 +2626,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>286</v>
       </c>
@@ -2551,7 +2634,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>288</v>
       </c>
@@ -2559,7 +2642,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>290</v>
       </c>
@@ -2567,7 +2650,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>292</v>
       </c>
@@ -2575,12 +2658,42 @@
         <v>293</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>294</v>
       </c>
       <c r="B163" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="B164" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="B165" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="B166" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="B167" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="B168" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="B169" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/record/exel_files/sample.xlsx
+++ b/record/exel_files/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\school_life_record_project_2\record\exel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407316AF-198E-4F87-A1D1-01D8D0F00FDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3D3E00-0623-4602-B320-E70285BE40B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HR" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="324">
   <si>
     <t xml:space="preserve">강민주 </t>
   </si>
@@ -1013,62 +1013,88 @@
     <t>학기 초 전입을 오게되어 적응하기 힘듬에도 불구하고 특유의 활발하고 밝은 성품으로 학급의 모든 급우들과 거리낌 없이 지내며 원만한 대인 관계를 형성함. 자기주관과 의사 표현이 뚜렷하고 선하고 긍정적인 사고를 가지고 있으며 잘못된 점을 지적하면 즉시 수긍하고 잘못을 뉘우치며 반성하는 모습이 바람직함. 꾸준한 노력과 올바른 학습 습관 덕분에 학업 성적이 전반적으로 향상된 편이며, 학생 스스로 부족한 점을 잘 알고 있으며 학업상담을 통해 학업의 중요성을 크게 느끼면서 스스로 강한 동기를 가지고 공부하는 습관을 만들고, 학업을 향상시키려는 변화된 모습을 보여줌. 개인 상담 시 담임교사의 이야기를 주의 깊게 듣고 생활태도면에서 아쉬운 부분들을 개선하기 위해 담임교사의 제안이나 충고를 성실히 따르려는 진솔한 모습을 보임. 이후에도 지속적인 관심과 보살핌을 통해 학생을 이끌어준다면 향후 학업과 학교생활 전반에 걸쳐 긍정적인 변화를 가져올 것으로 보여짐.</t>
   </si>
   <si>
-    <t xml:space="preserve">거짓이 없고 진실하며 꾸밈없이 행동하며 늘 표정이 밝음. </t>
-  </si>
-  <si>
-    <r>
-      <t>거짓이 없고 솔직하며 매사에 성실히 임함</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>거짓이 없고 진실하며 꾸밈없이 행동하며 표정이 밝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>거짓이 없고 진실하며 친구들과 잘 어울림</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거짓이 없고 솔직하게 행동하며 매사에 성실히 임함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거짓이 없고 솔직하게 행동하며 인사성이 좋음.</t>
+    <t xml:space="preserve">학급 내에서 여러 친구들과 두루두루 가깝게 지내며 깊이 있으면서도 넓게 소통하며 학급 분위기를 밝게 만들어주며 긍정적인 분위기를 만드는 데 큰 역할을 하며 친구들과 서슴없이 지내는 모습이 인상적임. 1년 동안 지각, 조퇴, 결석이 한 번도 없는 성실한 자세로 생활하였으며 주번 및 청소활동 시 마지막까지 남아 학교 및 학급생활에 대해 적극적인 태도를 보임. 학급 내에서 미니 도서관을 담당하여 다른 친구들의 독서활동에 도움을 주었으며 주어진 역할을 책임감 있게 함. 학업과 자기 발전에 관심이 많아 끊임없이 자신의 목표를 설정하고 이를 위해 노력하는 꾸준함과 자기주도적인 모습을 보이며 특히 자신이 목표한 것을 이루기 위해 적절한 때에 하고 싶은 것들에 대한 자제력과 절제력이 돋보임. 학습 시 학습 내용을 요약 및 정리하여 이를 반복적으로 표현하려는 모습을 보이며 공부환경, 습관, 생활패턴 등을 스스로 정확히 파악하고 변화를 주며 부족한 학습 내용에 대한 개선 의지를 보이고 꾸준히 노력함. 올바른 학교생활과 더불어 틈틈이 영상편집, 포토샵, 내부 조립 등 자신의 컴퓨터 관련 능력을 높임. 시험기간에 친구들을 위해 앞장서서 알려주며, 친구들과 머리를 맞대어 문제를 해결하는 모습을 보임. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">학급 내의 정해진 규칙을 잘 지키며, 올바른 학교생활의 모범이 되는 모습이 인상적임. 방역수칙을 엄격하게 지키며 학급 친구들과 안전한 학교생활을 위해 주도적으로 환기를 시킴으로써 높은 도덕성을 보임. 성격이 차분하고 정서적으로 안정감이 있어 어려움이 닥쳐도 침착하게 대처하는 태도를 보이며, 밝은 모습으로 다른 친구들의 말에 귀를 기울여주어 주변 친구들과 잘 어울리며 교우관계가 매우 원만함. 주번 및 청소활동 시 맡은 바에 강한 책임감을 가지고 임하며, 학급 내 활동에 자율적으로 참여하는 적극성을 보임. 수업에 집중력 있는 태도로 참여하며 학습한 내용을 교과서를 통해 반복적으로 상기시키며 자신이 세운 계획대로 학습에 성실히 임하고, 부족한 학습 내용에 대한 개선 의지를 보이고 꾸준히 노력함. 자신의 진로에 대해 끊임없이 고민하며 담당선생님께 스스로 상담을 신청하는 적극성을 보이며, 진로선택에 대해 탐색하고 스스로 고찰해보는 기회를 가짐. 이를 통해 자신의 적성과 진로를 깊이 있게 살펴보며 방향을 확립하고 목표를 이루기 위한 열정과 가능성이 눈에 띔. 원격기간 동안 학급 지각이 한 번도 없을 만큼 자신의 생활을 규칙적으로 유지하고자 하는 좋은 습관을 가지고 있음. </t>
+  </si>
+  <si>
+    <t>학급 내의 자신의 맡은 바를 성심 성의껏 해내며, 책임감이 깊고 봉사정신이 뛰어나 주번 활동 및 학급 청소 등을 가볍게 생각하지 않고 최선을 다함. 매사에 긍정적이며, 활발하며 자신이 흥미를 가진 분야에 대해서는 깊게 파고들고 진중한 태도로 임하는 모습이 인상적임. 특히 순간의 집중력이 높아 누구보다 빠르면서도 깊이 있게 집중하는 모습이 눈에 띔. 정서적으로 안정감이 있어 어려움이 닥쳐도 침착하게 대처하는 태도를 보이며, 자신감이 높고 자신에 대한 믿음이 강하여 이를 바탕으로 자신의 의견을 정확히 표현할 줄 알지만 이를 고집하기보다는 주변의 조언 또한 고려하여 생각하는 진중한 태도를 보임. 학교 선생님들께 항상 공손하고 예의 바른 태도를 가지며, 인사성이 밝음. 교과서 필기를 반복하여 학습함으로써 학습 내용을 상기시키며 학습에 성실히 임하고, 부족한 학습 내용에 대한 개선 의지를 보이고 꾸준히 노력함. 상담 시 진보적이고 용기 있는 모습으로 자기 자신을 솔직하고 진지한 태도로 바라보고 자신의 진로에 대해 고민하며, 다양한 분야를 스스로 탐색하며 신중한 태도를 보임. 학급 내에서 친구를 깊게 사귀며 친구들과 서로 돈독하게 지내고, 도움을 주고 고민을 상담하는 모습이 인상적임.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">활발하고 활동적이며 긍정적인 성격으로 학급 내의 분위기를 이끌어가는 역할을 하며 주변에 친구들이 많고 여러 친구들과 두루두루 잘 지내는 모습이 인상적임. 친구들의 고민을 상담하고 잘 공감하며 자신의 의견을 내세우기보다는 다른 사람의 의견에 먼저 귀 기울여주어 학급 내 모범학생으로 선출됨. 1년 동안 지각, 조퇴, 결석이 한 번도 없는 성실한 자세로 생활하였으며 주번 및 청소활동 시 마지막까지 남아 학교 및 학급생활에 대해 적극적인 태도를 보임. 학급 내에서 미니도서관을 담당하여, 다른 친구들의 독서활동에 도움을 주었으며 주어진 역할을 책임감 있게 하였으며, 학급 임원에게 도움을 적극적으로 제공하고 학기 초 학급 친구들과 함께하는 활동과 학급회의 시 의견을 제시하여 주도적이면서도 편안한 분위기로 이끌어가는 모습이 눈에 띔. 자신의 확고한 목표를 바탕으로 자신의 부족한 부분에 대해 자신을 유연하면서도 강인하게 발전시키는 모습이 누구보다 돋보이며, 학습 및 학교생활을 자기주도적으로 이끌어가고, 끊임없이 노력함. 스스로 계획을 세워 목표를 실천하고야 마는 통제력이 있으며 학습 내용을 정리하고 복습하며 특히 수학, 생명과학, 체육에 흥미가 높아 창의적인 면모를 바탕으로 관련 심화학습을 함. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">차분하면서도 밝은 에너지를 가져 주변 친구들과 가깝게 지내고 거리낌 없는 모습을 보임. 책임감이 강하여 주번 활동 및 학급 청소 등을 가볍게 생각하지 않고 최선을 다할 뿐 만 아니라, 자신이 할 일이 아닌 다른 일에도 적극적으로 도움. 1년 동안 지각, 조퇴, 결석이 한 번도 없는 성실한 자세로 올바른 생활을 하였으며, 심성 또한 착하여 누가 시키지 않아도 자리 주변 쓰레기 및 분리수거를 도맡아 학급 청결에 큰 도움을 주고 배려하는 모습이 눈에 띔. 인사성이 밝아 학교선생님은 물론 주변 사람들에게 친절하게 먼저 다가가 인사하는 예의 바른 모습이 돋보임. 그림 그리는 것을 잘 그리고 좋아하며 섬세하면서도 뛰어난 예술적 감각을 가지고 있어 친구들에게 조언해 줌. 봉사정신이 강하여 자신의 특기를 활용하여 누군가에게 도움을 제공하는 일에 큰 의미를 가지고 있으며 이를 실천하고자 하는 의지가 돋보임. 나아가 자신의 진로와 연관하여 자신의 꿈의 방향을 확립하고 이를 실현하고자 하는 노력하는 모습을 보임. 자신의 학업 및 학습 방법에 대해 끊임없이 고민하며 매 순간 최선을 다하고자 노력하고, 부족한 부분에 대해서 자신에 대한 강한 믿음을 바탕으로 점차 발전하고자 하는 의지를 나타내는 모습이 인상적임. </t>
+  </si>
+  <si>
+    <t>원격기간 동안 단 한 번도 원격 수업을 밀리지 않았으며, 학급 관련 일을 미루지 않고 진행하는 꾸준하면서도 부지런한 면모를 보임. 또한 1년 동안 지각, 조퇴, 결석이 한 번도 없는 성실한 자세로 올바르고 규칙적인 생활을 하였으며 학교생활에서 무엇이든 열심히 하는 적극성이 눈에 띄어 주변에서 좋은 모습을 보임. 1학기 학급 기율부로서 항상 용의복장을 단정히 하여 모범적인 모습을 보이고, 학급에서 일어나는 일에 관심을 가지고 적극적으로 참여함. 책임감이 강하여 주번 활동 및 학급 청소 등을 가볍게 생각하지 않고 최선을 다할 뿐 만 아니라, 끝까지 남아 자신이 할 일을 다해내고야 마는 모습을 보임. 원격기간에도 스스로 계획표를 작성하여 학습 시간을 철저히 관리하는 등 자기주도적인 면모를 보이며, 모든 과목에 대해 두루두루 좋은 결과를 나타냄. 특히 생명과학 교과에 관심이 많고 이 분야에 대한 지적 호기심과 학습 의욕이 높아 다양한 측면에서 스스로 노력함. 항상 선생님들께 예의 바른 태도로 질문하고 수업에 집중하여 좋은 평가를 받음. 심성이 착하고 남을 배려할 줄 알기에 친구들과 잘 어울리며 밝은 모습으로 다른 친구들의 말에 귀를 기울여주어 주변 친구들과 잘 어울리며 교우관계가 매우 원만함.</t>
+  </si>
+  <si>
+    <t>2학기 학급 기율부로서 항상 용의복장을 단정히 하여 올바른 학교생활에 솔선수범하고, 1년 동안 지각, 조퇴, 결석이 한 번도 없는 등 학교 및 학급 규칙의 중요성을 강조하며 공동체생활에 적극적으로 참여함. 또한, 학급 내에서 깨끗한 교실 환경 조성을 위하여 뒤에서 묵묵히 교실청소를 하고, 실내공기를 앞장서서 환기시키는 등 뛰어난 봉사정신을 보임. 선생님들께 예의 바른 태도로 질문하고, 꼼꼼하게 자신이 궁금한 점들을 짚고 넘어가며 모범적인 모습으로 학교생활에 임하는 모습이 눈에 띔. 책임감이 강하여 자신에게 주어진 자격에 최선을 다하며 어려움이 있더라도 자신을 절제하며 극복하고자 하는 모습이 돋보임. 모든 일에 꼼꼼하고 진지한 태도로 임하며 학업의 측면에서 자신이 부족한 부분에 대해 깊이 있게 고민하여 오답노트를 통해 원인을 찾으려 노력하며, 메타인지능력이 돋보이고 끝까지 해답을 찾아내고야 마는 끈기를 보임. 자신을 객관적으로 바라볼 줄 알고 발전시키고자 하는 의지가 강하여 어려움을 겪었을 때 이를 극복하고 자신의 행동을 절제하며 대안을 마련하는 모습이 두드러짐. 생명과학 분야에 관심이 많으며 이와 관련된 학교 과학 활동에서 좋은 결과를 얻어 진로에 다가가는 모습을 보임.</t>
+  </si>
+  <si>
+    <t>학급 내에서 차분히 자신이 해야 할 일들을 해나가며 정서적으로 매우 안정하여 흔들림 없이 꾸준히 자기 몫을 다하는 학생임. 성실하고 책임감이 강하여 학급 청소 및 주번 활동 등의 학급 활동에서 꼼꼼히 자신이 맡은 구역을 청결하게 하는 모습을 보임. 또한, 학급 내의 정해진 규칙을 잘 지키며, 올바른 학교생활의 모범이 되는 모습이 인상적임. 방역수칙을 엄격하게 지키며 학급 친구들과의 안전한 학교생활을 위해 이동 수업 시 교실 소등과 문단속을 도맡아 하는 높은 도덕성을 보임. 선입견을 가지지 않아 학급 내에서 혼자 있는 친구에게 먼저 다가가며 배려심이 깊고 정직한 모습에 교우관계가 원만하여 친구들과 사이가 좋음. 어떠한 상황에서든 그 상황에 잘 어우러질 수 있는 친화력을 가지고 있으며 자신보다는 다른 사람의 입장에서 생각하여 남을 배려하여 말하고 행동하는 섬세한 모습이 눈에 띔. 수학과 과학에 관심이 많아 관련 학교활동에 적극 참여하고 자신의 진로와 연계하여 발전하고자 하는 의지를 보이며, 새로운 내용을 학습할 때 여러 분야까지 찾아보는 적극적인 학습태도를 가지고, 자기주도적으로 자신의 학습 능력을 이끌어 갈 줄 앎. 어떤 일이든 진심을 다하기에 앞으로의 발전가능성을 보임.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">학급 내에서 차분한 모습이 두드러지며, 주번 및 청소활동 시 맡은 바에 강한 책임감을 가지고 임하며, 학급 내 청소 및 주번활동에 묵묵히 자신의 역할을 소화함. 친구들과 깊이 있게 지내며 친구들과의 관계에서 친밀감과 명랑함을 보임. 수업에 집중력 있는 태도로 참여하며 학습한 내용을 반복적으로 상기시키며 틈틈이 자신을 객관적으로 검토해보면서 자신의 학습 방법 및 계획 등에 대해 되돌아볼 줄 아는 메타인지능력이 뛰어남. 자신이 세운 계획대로 학습에 성실히 임하고, 부족한 학습 내용에 대한 학교생활에서 시간을 쪼개어 활용하여 이를 개선 의지를 보이고 꾸준히 노력함. 자신의 학업에 관심이 많으며 끊임없이 자신을 다독이며 발전하고자 하는 의지를 다지고, 궁금한 것에 대해 끝까지 그것에 대한 해답을 얻는 끈기를 보임. 또한 자신이 이해한 부분도 다시 한 번 짚고 넘어가며 확인하는 꼼꼼함이 눈에 띔. 원격기간 동안 학급 지각 및 결석이 한 번도 없을 만큼 자신의 생활을 규칙적으로 유지하고자 하는 좋은 습관을 가지고 있으며 올바른 생활을 하고자 노력함. 관습에 구애 받지 않는 창의적인 면모를 가지고 있고 사고의 폭이 누구보다 넓어 이를 활용한 학교활동 및 진로에 좋은 결과를 얻으리라 생각됨. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1학기 부회장으로서 모두가 어려운 상황에서 친구들이 고등학교 첫 학교생활을 잘 할 수 있도록 누구보다 앞장서서 다른 학급 친구들을 도와주고, 학급 및 교과 전달사항을 뛰어난 봉사정신으로 매일 빠짐없이 안내하였으며 자신이 맡은 일을 강한 책임감과 공동체의식으로 완벽하게 해내어 학급 내 친구들에게 좋은 평가를 받아 투표를 통하여 모범학생으로 선출됨. 학급 내 게시판을 관리하는 역할을 자원하여 안내문과 홍보지 등 다량의 게시물을 정리하고, 시험 기간에 암기해야 할 내용들을 칠판에 적어 공유하여 친구들과 적극적으로 상호작용하여 도움을 제공함. 높은 봉사정신으로 학급 내 궁금한 사항을 학급을 대표하여 교과 선생님께 여쭤볼 때에도 예의 바르고 논리적으로 질문하여 교과 선생님께 칭찬을 받음. 1년 동안 단 한 번도 결석, 지각, 조퇴가 없었으며 규칙적이고 성실한 생활을 하고 꾸준하고, 강인한 면모가 두드러져 학습 시 자신을 절제하는 의지가 돋보임. 복싱, 스트레칭 등을 통해 스트레스를 해소하는 만큼 활동적이고 능동적인 면모를 가지며, 자존감이 높아 어려움을 겪어도 금방 회복하는 유연함이 눈에 띔. 수학과 과학에 높은 흥미를 가지고 있으며 학교활동에서도 좋은 결과를 받아 자연계열 진로에 잠재력을 보임. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">평소 교칙을 준수하며 단정한 복장으로 생활하며, 아침 일찍 등교하여 하루를 시작하고, 약속한 시간을 잘 지키는 등 모범적인 학교생활에 솔선수범함. 주번 활동을 하면서 맡은 일을 성실히 하고 궂은일을 묵묵히 해내 학급 친구들이 쾌적한 환경에서 공부할 수 있도록 도움. 1년 동안 단 한 번의 지각, 조퇴, 결석이 없는 학생으로 근태상황이 매우 훌륭하고, 성실함. 학교에 등교하여 묵묵히 자신의 자리에서 해야 할 일들을 하고, 자신이 좋아하는 분야에 대해 열의를 가지고 임하며, 사회 및 역사분야에 관심이 많아 궁금증이 생기면 책에서 스스로 그 해답을 얻고자 노력하는 능동적인 태도를 보임. 자신의 학습 방법 및 개선에 대해 깊은 관심을 가지고, 끊임없이 성찰하여 발전해나가고자 하는 의지를 가지며 문과계열의 진로에 뜻을 다짐. 학급 내에서 친구들에게 먼저 다가가기를 부끄러워하지만, 누군가에게 선입견을 가지지 않고 자신의 일을 다른 친구들에게 미루거나 피해를 입히는 행동을 하지 않는 정직함이 가장 돋보이는 학생으로 나중에 사회에 도움이 되는 일을 하고자 하는 데에 좋은 특성을 가지리라 생각됨. 자신의 꾸준한 노력을 통해 성적이 꾸준히 상승하였으며 특히 국어, 영어, 과학의 경우 매 시험 성적이 나아지는 모습이 두드러짐. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">활기차고 명랑한 학생으로 창의적이고, 재치가 있어 주변 친구들을 유쾌하게 만드는 능력이 있음. 책 읽기를 좋아하며 상식이 풍부하고 아이디어가 풍성해서 주변 친구들에게 도움을 주고, 동아리 및 조별 활동 시 적극 참여함. 친구들과 어울리는 것을 좋아하며 함께 의견을 나누고, 협력하는 활동을 잘 해 모둠 활동 및 학급에 생기를 불어넣음. 1년 동안 단 한 번의 지각, 조퇴, 결석이 없는 학생으로 근태상황이 매우 훌륭하고, 1학기 학급 기율부로서 항상 용의복장을 단정히 하여 모범적인 모습을 보이고, 학급에서 일어나는 일에 관심을 가지고 적극적으로 참여함. 학급 청결관리를 누가 시키지 않아도 솔선수범해서 하는 등 학급 운영에 기여하였고 밝은 학급 분위기를 이끎. 시험기간에 친구들과 수학문제를 풀며 지식을 공유하고 학습 분위기 조성에 힘씀. 성실하며 부족하다고 생각하는 부분에 대해서 꾸준한 노력을 통해 성장하는 것을 보여주는 학생으로, 1학기보다 2학기에 자기주도적인 면모로 전반적인 성적을 높였으며, 기본에 충실함으로써 스스로 학업과 진로에 뚜렷한 목표와 책임감을 가지고 나아가는 모습이 인상적임. 자신의 롤모델의 책과 강연을 꾸준히 접하여 목표를 향해 해야 할 일을 정확히 알고 있으며 이를 실천함. </t>
+  </si>
+  <si>
+    <t>1년 동안 단 한 번의 지각, 조퇴, 결석이 없는 학생으로 근태상황이 매우 훌륭하고, 자신의 생활 패턴을 규칙적으로 하고자 노력하고 실천함. 책임감이 강하여 주번 활동 및 학급 청소 등을 가볍게 생각하지 않고 최선을 다할 뿐 만 아니라, 끝까지 남아 자신이 할 일을 다해내고야 마는 모습을 보임. 차분한 성격으로 매사에 진지한 태도로 임하며, 본인은 물론이고 주위 사람들에게도 좋은 기운을 주는 힘이 있음. 도움을 요청하거나 몸이 불편한 상황의 사람들을 그냥 지나치지 않고 적극적으로 도움을 제공하는 심성이 착한 학생임. 학급 내 정해진 규칙을 잘 준수하고, 용의 복장에서도 모범적인 모습이 돋보임. 자신에게 주어진 일이 있을 때 그것을 끝까지 해내려고 하는 강한 의지와 꾸준함을 가지며 이를 바탕으로 어려운 일을 겪을 때도 그 가운데 긍정적인 부분을 보며 극복해내는 학생임. 자신이 좋아하는 일을 잘 알고 관련된 진로를 찾아 꿈을 이루기 위해 노력하는 자세가 좋아 자신의 진로에 한걸음 더 다가가기 위해 독일어와 다른 언어들을 독학으로 공부하고 있으며, 언어이해력과 습득력이 빨라 그 결과가 긍정적임. 1학년 과정을 성실하게 수행하였고 자기주도학습의 힘을 기르고 상대를 배려하는 성숙함이 깊어짐.</t>
+  </si>
+  <si>
+    <t>1학기 학급 회장으로서 모두가 어려운 상황에서 친구들이 고등학교 첫 학교생활을 잘 할 수 있도록 역할에 최선을 다하며 책임감을 가지고 다수의 의견을 최대한 반영하여 최대의 만족을 이끌어 내어 모범학생으로 선출됨. 특유의 친화력을 바탕으로 새로운 친구들에게 먼저 다가가며, 앞장서서 다른 학급 친구들을 도와주고, 시험 기간에 암기해야 할 내용들을 칠판에 적어 공유하여 친구들과 적극적으로 상호작용하여 도움을 제공함. 학급 내 친구들이 한 명이라도 소외되지 않도록 모든 친구들에게 학급 수행과제, 준비물, 공지사항들을 전날까지 꼼꼼히 전달함. 1년 동안 단 한 번의 지각, 조퇴, 결석이 없는 성실하고 모범적인 학생의 모습을 보임. 긍정적인 사고와 강한 끈기로 성적이 기대했던 만큼 나오지 않더라도 좌절하지 않고, 원인을 파악하여 개선하고, 어려운 수학문제 또한 포기 하지 않고 유사한 문제를 풀이 및 연구하여 자신의 것으로 만들어가는 모습이 인상적임. 학원에 의존하지 않고 자기주도적으로 학습하며, 매일 계획을 세워 그것을 실천하고, 과목별로 자신만의 정리 노트를 활용하여 효율성을 극대화 함. 암기과목보다는 수학, 과학교과에 더 흥미를 느끼고 관련 학교활동에 적극적으로 임하여, 자신의 진로에 더 다가감.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">명랑한 성격으로 매사에 긍정적으로 임하여 본인은 물론이고 주위 친구들에게도 좋은 기운을 주는 힘이 있음. 1년 동안 단 한 번도 지각하지 않았으며, 등교 후에 차분히 자신이 해야 할 일들을 해나가는 모습이 인상적임. 책임감이 강하고 착실하여 주어진 일에 충실하고 자신의 일은 미루지 않고 스스로 해결함. 노력하는 자세로 학업에 임하고 청소 시간에도 하루도 변함없이 묵묵히 자신의 청소에 성실히 임할 뿐 만 아니라 주번이 아닐 때에도 주번의 일을 도와주는 친구들의 모범이 되는 학생이며, 다른 친구들이 어려움을 겪을 때 문제를 해결해주려는 모습을 보여줌. 모나지 않은 성격으로 항상 웃는 얼굴로 친구들과 원만한 관계를 맺으며 갈등이 일어나지 않도록 남의 입장을 이해하려고 노력함. 오랜 외국 생활로 첫 고등학교 생활의 적응이 어려웠음에도 불구하고 자신을 끊임없이 다독이고 자기주도적 학습으로 조금씩 발전해나가는 모습이 인상적임. 영어에 자신감을 가지고 있어 영어를 활용한 분야에 대해 관심을 가지고 있으며 학교활동에도 적극적으로 참여하고, 이외에도 자신이 좋아하는 일과 잘하는 일, 적성 등을 찾고자 끊임없이 다양한 분야에 접근하며 관련된 진로를 찾기 위해 노력하는 자세가 좋음. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">항상 미소를 잃지 않으며 친절과 배려가 몸에 배어있는 열정적인 학생으로 사교성과 친화력이 뛰어나며 학기 초 서먹한 친구에게 먼저 대화를 걸어 깊은 유대관계를 쌓고 서로의 적응에 도움을 줌. 공감능력과 친절한 태도로 인해 주변에 친구들이 항상 모여 있으며, 그들에게 긍정적인 영향을 많이 줄 뿐 만 아니라, 어른에 대한 공겸심이 강해 예의 바른 태도가 돋보임. 1년 동안 단 한 번의 지각, 조퇴, 결석이 없는 성실하고 모범적인 학생의 모습을 보임. 영어회화 발표수업에서 조장으로 활동하며 모두에서의 자기 역할을 톡톡히 하고, 이타심과 배려 깊은 행동을 보임. 공감능력과 친절한 태도로 인해 주변에 친구들이 항상 모여 있으며, 그들에게 긍정적인 영향을 많이 주고 고민 상담을 잘 해줌. 미래에 대해 끊임없이 고민하고, 두려워하지 않으며, 부족한 부분이 있어도 포기하지 않는 근성이 있어 장기간의 노력이 빛을 발하는 노력형의 면모를 보임. 당장의 학업 성취도가 높지는 않으나 처음보다는 다음의 발전이 기대되는 학생으로, 스스로 수업을 비롯한 모든 활동에 일관적이고 적극적으로 참여함. 나아가 기본에 충실하고 자신의 진로를 확고히 한 만큼 조금씩 자신의 잠재력을 표출하리라 기대가 됨. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">친구들과의 관계에 있어 먼저 다가갈 수 있는 용기가 있으며, 특유의 친화력으로 분위기를 밝게 하는 긍정적인 에너지를 가짐. 또한, 상대방을 배려하며 어려움을 겪는 친구에게 도움을 제공하거나 모둠 활동 시 협력하여 문제를 해결하는 모습이 눈에 띔. 공개적인 장소에서 쉽게 긴장하지 않는 대담함이 가장 큰 장점이며, 교내 활동 시에도 다양한 분야에서 발표에 참여하고, 자진하여 대표 역할을 하여 활동을 성공적으로 마무리 짓는 모습을 보임. 몸이 약한 편이지만 아픈 어려움 속에서도 꿋꿋하게 이겨내고 자신의 수행평가를 꼼꼼히 챙겨나가는 모습이 매우 인상 깊었던 학생으로 뛰어난 자기 관리 능력과 강인한 정신력을 지닌 학생임. 무언가를 한 번 이해하면 쉽게 받아들이고 그것을 암기한 후에는 쉽게 잊지 않아 이를 자신의 학업에 효율적으로 활용하며 유연함을 가짐. 동아리 활동과 학교 활동을 자신의 진로와 연계하여 긍정적으로 바라볼 줄 알고 이를 어떻게 활용해야 하는 지에 대해 탐구하는 창의적인 면모가 돋보이며, 다양한 분야에 관심이 많고 시류에 빨라 유동적으로 변하는 트렌드에 잘 맞춰나가는 잠재력을 가지고 있어, 자신의 관점에서 끊임없이 노력하고 있기에 향후 많은 발전이 있을 것으로 생각됨. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">학급 내에서 자신이 맡은 바 소임을 끝까지 책임감 있게 다하며, 많은 친구들과 소통하면서 두루두루 잘 지내는 모습을 보임. 주번 활동 및 학급 청소 등을 가볍게 생각하지 않고 최선을 다할 뿐 만 아니라, 끝까지 남아 자신이 할 일을 다해내고야 마는 모습을 보임. 친화력이 좋고 예의 바른 태도를 가지고 있어 학교 선생님들께서 좋은 평가를 하는 학생이며 자신의 말과 행동에 책임감을 가지는 강인함이 돋보임. 학급 내 미니도서관 담당 친구들을 배려하여 도와주고 필요한 물품이 없는 친구들에게 적극적으로 물품을 찾아주거나 자신의 것을 빌려주고, 몸이 아파 결석한 친구에게 자신의 교과 필기를 공유하고, 이해되지 않는 부분까지 친절하게 설명해주는 등 다른 사람들의 말에 세심하게 귀를 기울이고 자신의 능력을 적재적소에 활용할 줄 아는 모습이 인상적임. 자기주도적인 학습을 바탕으로 점차 능력이 향상되었으며 틈틈이 독서를 함으로써 지식 영역을 확장하고 정신적으로 성숙해지는 기회를 가짐. 자신을 객관적으로 파악하기 위해 끊임없이 자신에 대해 탐구하고 자신의 적성 및 흥미 등을 구체적으로 바라보며 진로에 한 발 다가가며, 이에 그치지 않고 관련 강연과 문헌 자료를 적극적으로 찾아 봄. </t>
+  </si>
+  <si>
+    <t>책임감이 강하고 착실하여 주어진 일에 충실하고 자신의 일은 미루지 않고 스스로 해결함. 노력하는 자세로 학업에 임하고 청소 시간에도 하루도 변함없이 묵묵히 자신의 청소에 성실히 임함. 매사에 긍정적으로 임하여 본인은 물론이고 주위 사람들에게도 좋은 기운을 주는 힘이 있으며 다른 사람들의 이야기에 귀 기울이고, 모나지 않은 성격으로 항상 웃는 얼굴로 친구들과 원만한 관계를 맺으며 갈등이 일어나지 않도록 남의 입장을 이해하려고 노력함. 착실하여 주어진 일에 충실하고 자신의 일은 미루지 않고 스스로 해결함. 노력하는 자세로 학업에 임하고 청소 시간에도 하루도 변함없이 묵묵히 자신의 청소에 성실히 임하여 친구들의 모범이 되는 학생임. 자신을 객관적으로 바라볼 줄 아는 용기가 있으며, 진실 되게 자신의 이야기를 할 줄 알고 상대방의 조언을 편견 없이 받아들일 줄 아는 모습이 인상적임. 자기주도적인 학습에 적응하고자 노력하고, 끊임없이 스스로를 채찍질하여 성실한 생활 태도를 가지려 노력하여 성실히 수행한 1학년 과정을 바탕으로 앞으로의 학습 방법 및 생활 패턴이 규칙적으로 발전이 기대됨. 생명과학 분야에 관심이 많고 흥미가 생긴 분야는 끝까지 모든 정보를 수집하고 파악하는 성향이 있음.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">예의가 바르고, 특히 매사에 성실하여 주어진 일에 최선을 다함. 청소당번을 맡을 때도 자신의 구역뿐 아니라 친구들의 구역까지 깨끗하게 쓸고 닦는 등 작고 티가 나지 않는 일에도 성심 성의껏 임함. 언행이 바르며 사람에 대한 편견이 없어 처음 보는 친구들에게도 스스럼없이 다가갈 줄 아는 성품을 지녔으며 조용하고 마음씨가 따뜻하여 친구들과의 관계에서 갈등상황을 만들지 않음. 성격이 차분하고 모든 일에 인내심을 가지며 원격 수업을 성실히 수강하는 등 1년 동안 묵묵히 자신의 역할에 최선을 다하며 학급에 모범을 보이고, 원만한 교우 관계를 위해 솔선수범함. 자신의 감정에 매몰되거나 일희일비하지 않기 위해 노력하며, 자신의 감정을 솔직하게 받아들이고 이를 표현할 줄 아는 모습이 인상적임. 목표한 바가 있으면 이를 이루기 위해 자신의 현 상황을 냉철하게 분석하고 보완하며 한 걸음씩 체계적으로 내디딤. 학업 성적 향상에 많은 관심을 갖고 있어 시험을 치른 후 결과를 철저히 분석하고, 이전의 성공 경험을 바탕으로 자신의 학습 방법을 성찰하면서 꾸준히 개선하여 많은 발전을 이루고자 노력함. 1학년 과정을 성실히 수행한 학생이므로 앞으로 많은 성장이 기대됨. </t>
+  </si>
+  <si>
+    <t>학급 내에서 자신이 맡은 바 소임을 끝까지 책임감 있게 다하며, 많은 친구들과 소통하면서 두루두루 잘 지내는 모습을 보임. 활발하고 밝은 성격으로 학급 친구들과 가까이 지내며 긍정적인 상호작용을 보임. 학급 활동 및 청소 등을 가볍게 생각하지 않고 최선을 다할 뿐 만 아니라 함께하는 활동에서 더욱 적극적인 면모가 두드러짐. 1년 동안 지각, 결석이 한 번도 없는 등 학교 및 학급 규칙을 준수하며 공동체생활에 적극적으로 참여함. 교과서를 소리 내어 읽으며 학습함으로써 학습 내용을 상기시키며 학습에 성실히 임하고자 노력하며, 부족한 학습 내용에 대한 개선 의지를 보이고 꾸준히 노력함. 상담 시 자기 자신을 솔직하고 진지한 태도로 바라보고 자신의 진로에 대해 고민하며 자신의 흥미와 적성, 장점과 단점 등을 고려하여 그에 맞는 다양한 분야를 스스로 탐색하고자 함. 1학년 과정을 성실히 수행한 학생이므로 학업에서의 부족한 부분은 올바른 생활 습관과 집중력 향상을 통해 앞으로 스스로 개선해나가고 자신에게 맞는 학습 방법 개선을 통해 꾸준히 노력하고 있기에 향후 많은 발전이 있을 것으로 생각됨.</t>
+  </si>
+  <si>
+    <t>2학기 학급 기율부로서 항상 용의복장을 단정히 하여 올바른 학교생활에 솔선수범하고, 담임선생님을 도와 학급 친구들에게 유인물을 배부하고, 용의복장을 올바르게 갖추도록 안내함. 1년 동안 지각, 조퇴, 결석이 한 번도 없는 등 학교 및 학급 규칙의 중요성을 강조하며 주번 및 청소를 성실히 수행하여 공동체생활에 적극적으로 참여함. 주변 친구들에게 관심이 많고 세심하게 챙기며 항상 웃는 얼굴로 대하여 항상 주변에 친구가 많고, 친구들이 어려워하는 수학 문제를 친절하게 설명해주며 학급 학습 분위기를 이끌어 감. 어떠한 일이든 자신에게 주어진 일에 책임감을 가지고 임하며 작은 부분까지 고민하고 꼼꼼히 챙겨 끝까지 완벽하게 수행하는 모습이 인상적임. 과학에서 특히 생명과학과 화학 분야에 관심이 많고 생명의 가치를 소중히 생각함. 나아가 실생활에서 직접 수행 가능한 화학 실험들을 직접적으로 진행하고, 이 과정에서 생긴 의문점 또한 스스로 문헌자료를 통해 끝까지 해결하는 등 호기심과 탐구열정이 있음. 학업에 대한 의지가 강하고, 끊임없이 자기계발에 힘써 점진적으로 발전하는 모습이 돋보이며 발표 및 프로젝트 등 학교활동에 항상 적극적이고 도전적으로 참여하여 앞으로의 모습이 기대됨.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">책임감이 강하고 착실하여 주어진 일에 충실하고 학급 내 규칙을 준수하고 자신의 일은 미루지 않고 스스로 해결함. 학급 내 주번 및 청소활동을 성실히 임하며 부득이하게 청소활동을 하지 못하는 친구를 위해 자진하여 청소를 하는 봉사정신을 보임. 영어회화에 능통하고 영어 원서를 읽거나 영어로 토론하는 것을 즐기며, 자신의 특기를 살려 번역 봉사에 참여하고 이를 통해 감사하는 마음과 사랑하는 마음에 대해 배워 학급 친구들을 한 치 망설임 없이 도움. 노력하는 자세로 학업에 임하고 원격 기간에도 항상 정해진 시간 내에 수업을 듣고 나머지 시간을 개인 공부시간으로 활용하여 성적이 향상되도록 적극 노력함. 자신의 진로인 전자공학과에 진학하고자 수학과 과학 학습을 집중적으로 하고, 특히 부족한 수학 성적 향상을 위해 포기하지 않고 매일 일정한 시간을 할애하여 공부하는 끈기와 꾸준함을 보임. 실생활에서 발견될 수 있는 과학의 원리에 관심을 가지고 궁금증을 해결하기 위해 교과 선생님께 질문하는 등 높은 탐구심을 가짐. 수학 교과 시간에 모둠별 연구의 주제 선정 시 어려움을 겪고 있는 조원들에게 창의적인 아이디어를 제시하고 맡은 역할을 정확히 해내어 모둠의 발표를 성공적으로 이끌어감. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">학급 내에서 항상 웃는 얼굴로 친구들과 선생님을 대하여 학급 내 분위기를 따뜻하고 밝게 만들어주는 모습이 인상적임. 다른 사람들에게 관심을 갖고 세심하게 배려하며 자신의 행동을 통해 다른 사람들이 좋은 결과를 얻을 때 무엇보다 큰 기쁨을 얻는 훌륭한 인성을 가진 학생임. 상대방에게 편안한 인상을 주어 다른 친구들이 가까이 다가가기 편하게 대해주며 사람들과 관계를 맺는 것에 즐거움을 느낌. 항상 용의복장을 단정히 하여 올바른 학교생활과 학급 규칙 준수에 솔선수범하고, 주번 및 청소활동을 성실히 임함. 자신의 학업에 관심이 많고 끊임없이 부족한 부분을 채워나가고자 하는 의지가 강하여 다양한 방법을 고려하여 자신의 학습 방법 및 계획 등을 개선하고 만족스럽지 못한 부분은 선생님들의 조언을 구하는 적극성을 보임. 자신의 상황을 객관적으로 바라볼 줄 아는 용기를 가지고 있으며 이를 바탕으로 차츰 자신을 변화해나가는 모습을 보여 앞으로의 가능성이 긍정적으로 보임. 또한 자신의 감정을 솔직하게 표현하고 타인의 감정 또한 그대로 이해하는 성격으로 감정을 움직여 사람들을 웃고 울게 만드는 직업인 드라마 PD와 연계하여 진로를 정하였으며 이에 큰 잠재력과 발전 가능성을 보여 기대됨. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2학기 부회장으로서 모두가 어려운 상황에서 누구보다 앞장서서 다른 학급 친구들을 도와주고, 학급 및 교과 전달사항을 뛰어난 봉사정신으로 매일 빠짐없이 안내하였으며 자신이 맡은 일에 강한 책임감을 보임. 항상 용의복장을 단정히 하여 올바른 학교생활에 솔선수범하고, 담임선생님을 도와 학급 친구들에게 유인물을 배부함. 1년 동안 지각, 조퇴, 결석이 한 번도 없는 등 학교 및 학급 규칙의 중요성을 강조하며 주번 및 청소를 성실히 수행하여 공동체생활에 적극적으로 참여함. 사교적이며 친화력이 좋아 친구들과 선생님에게 높은 친밀감을 보이며 성격이 부드러워 친구들과 두루두루 잘 지내는 모습을 보임. 학급 친구들과 함께 생활하는 것에 즐거움을 느끼고 이러한 상호작용 속에서 긍정적인 에너지를 얻어 이를 바탕으로 학교생활에 적극 참여함. 생명과학과 화학에 대한 흥미가 높아 이에 대한 학교활동에 관심을 많이 보이며 자신의 진로에 대해 다양한 측면에서 스스로 탐색하는 신중한 태도를 보임. 상담 시 진보적이고 용기 있는 모습으로 자기 자신을 솔직하고 진지한 태도로 표현하고, 학습 방법 개선에 강한 의지를 보이며 주변의 조언을 적극적인 태도로 구하고 이를 수용할 줄 아는 진지함과 의지가 인상적임. </t>
+  </si>
+  <si>
+    <t>2학기 회장으로서 학급 친구들에게 여러 매체를 통해 안내사항과 과제물을 주기적으로 꼼꼼히 공지하여 학급에 도움을 제공하고, 성실하고 책임감 있게 자신이 맡은 역할을 수행함. 항상 용의복장을 단정히 하여 올바른 학교생활에 솔선수범하고, 학급 친구들에게 학생회의 다양한 캠페인과 활동을 안내하는 등 학급에서 중심이 되어 학급활동을 주도하는 리더의 역할을 완벽하게 해냄. 1년 동안 지각, 조퇴, 결석이 한 번도 없는 등 학교 및 학급 규칙의 중요성을 강조하며 주번 및 청소를 성실히 수행하여 공동체생활에 적극적으로 참여함. 타인에 대한 배려를 갖추어 지식과 전문성을 바탕으로 타인에게 봉사하고 인류애를 실천할 수 있는 진로를 희망함. 어려운 수학문제를 제시하여, 친구들과 토의를 통해 해결하는 과정에서 학급 친구들과의 협업능력을 신장시키고 학급 학습 분위기를 이끌어감. 빠른 상황 판단과 주변 상황에 흔들리지 않는 소신 있는 행동으로, 어려움을 겪더라도 좌절하지 않고 자신을 다독이고 인내하여 반드시 원하는 결과를 얻고야 마는 강한 끈기와 자기 통제력이 돋보이는 학생임. 어려운 문제를 끝까지 생각하며 스스로의 힘으로 해결하는 꾸준한 연습을 통해 성적향상과 자신감을 얻게 됨.</t>
+  </si>
+  <si>
+    <t>책임감이 강하고 착실하여 학급 내 주번 및 청소활동을 성실히 임하며 주어진 일에 충실하고 자신의 일은 다른 사람에게 미루지 않고 스스로 해결함. 학급 내 규칙을 준수하기 위해 자신의 생활패턴을 개선하여 끝까지 노력하는 모습을 보임. 어떤 상황에서든 리더의 역할을 해내어 관계에 어려움을 겪거나 친하지 않은 친구들에게 먼저 다가가 밝은 분위기를 주도적으로 이끌어내며 자신이 먼저 적극적으로 나서서 원활한 진행을 유도하는 등 학급 친구들과 거리낌 없이 지내는 모습이 인상적인 학생임. 또한 아무도 나서지 않는 상황에서 자신이 나서며 주변 사람들을 배려하여 상황에 대처하는 모습을 보임. 체육, 미술, 피아노 등 예체능에 소질이 있으며 자신의 진로 또한 체육교사로 이에 대한 적성과 맞아 앞으로의 모습이 기대됨. 승부욕이 강하여 특정 종목에 있어서 남들보다 더 노력하는 집중력과 끈기를 보이고, 자신과 타인 모두에게 솔직하여 거짓이 없으며 정직함과 진솔함을 강점으로 내세울 수 있는 학생임. 1학년 과정을 성실히 수행하고 끝까지 포기하지 않는 학생이므로, 학업에서의 부족한 부분은 앞으로 스스로 개선해나가고 자신의 꿈과 목표를 위해 꾸준히 노력하는 모습으로 많은 성장이 기대됨.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">차분하고 신중한 학생으로 조용한 편이며 학급 친구들과 깊이 있게 지내며 친구들과의 관계에서 친밀감과 명랑함을 보임. 타인 앞에 처음 나설 때엔 어색함을 느끼지만 점차 먼저 말을 걸고 다가감. 기본적인 심성이 착하여 학급 내 행동에서 조심스러움이 보이며, 자신의 행동에 책임감을 가지려고 함. 지적 호기심이 높고 끈기 있게 자신이 목표한 바를 이루려는 인내력과 집념이 있으며 자신이 해야 할 일이 무엇인지 분명히 알고 이를 위해 자신의 행동을 통제하고, 지키고자 하는 규칙은 지켜나가는 강인함이 돋보임. 자기 절제력을 바탕으로 자신의 진로와 학업에 대해 끊임없이 고민하고, 특히 시험기간에 조용히 자신이 해야 할 일들을 하는 모습이 인상적임. 자신이 궁금한 점에 대해 주변 친구들에게 도움을 청할 줄 아는 용기가 있으며 사소한 것이라도 고마워할 줄 알고 그것을 표현할 줄 앎. 실수나 미진한 부분에 대해 포기하지 않고 통찰하고 분석하여 이후에 더 성장하고 발전하는 모습을 보여 줌. 수학, 과학 영역에 관심이 많아 이와 관련된 활동에 진지하게 다가가고, 진로 또한 고등학교에 입학하여 많은 공부 량과 높은 난이도를 극복하기 위해 각오를 새롭게 하고 다양한 시행착오를 거치며 자신만의 공부 법을 발견해 나감. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,7 +1102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,28 +1123,15 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="한양신명조"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1141,9 +1154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1432,1268 +1446,1380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="255.375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="255.375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="B28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="B29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="B31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="B32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="B49" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="B50" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="B51" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="B52" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="B53" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="B54" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="99">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2" ht="99" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="115.5">
-      <c r="A69" t="s">
+    <row r="69" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="115.5">
-      <c r="A71" t="s">
+    <row r="71" spans="1:2" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="132">
-      <c r="A73" t="s">
+    <row r="73" spans="1:2" ht="132" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="B164" s="3" t="s">
+    <row r="164" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="B164" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="B165" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="B166" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="B167" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="B168" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="B169" s="4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="B165" s="3" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="B166" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="B167" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="B168" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="B169" s="3" t="s">
-        <v>299</v>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/record/exel_files/sample.xlsx
+++ b/record/exel_files/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\school_life_record_project_2\record\exel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3D3E00-0623-4602-B320-E70285BE40B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE48A5-C4F9-4CB1-B7EE-3BD559674B05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="416">
   <si>
     <t xml:space="preserve">강민주 </t>
   </si>
@@ -1096,6 +1096,337 @@
   <si>
     <t xml:space="preserve">차분하고 신중한 학생으로 조용한 편이며 학급 친구들과 깊이 있게 지내며 친구들과의 관계에서 친밀감과 명랑함을 보임. 타인 앞에 처음 나설 때엔 어색함을 느끼지만 점차 먼저 말을 걸고 다가감. 기본적인 심성이 착하여 학급 내 행동에서 조심스러움이 보이며, 자신의 행동에 책임감을 가지려고 함. 지적 호기심이 높고 끈기 있게 자신이 목표한 바를 이루려는 인내력과 집념이 있으며 자신이 해야 할 일이 무엇인지 분명히 알고 이를 위해 자신의 행동을 통제하고, 지키고자 하는 규칙은 지켜나가는 강인함이 돋보임. 자기 절제력을 바탕으로 자신의 진로와 학업에 대해 끊임없이 고민하고, 특히 시험기간에 조용히 자신이 해야 할 일들을 하는 모습이 인상적임. 자신이 궁금한 점에 대해 주변 친구들에게 도움을 청할 줄 아는 용기가 있으며 사소한 것이라도 고마워할 줄 알고 그것을 표현할 줄 앎. 실수나 미진한 부분에 대해 포기하지 않고 통찰하고 분석하여 이후에 더 성장하고 발전하는 모습을 보여 줌. 수학, 과학 영역에 관심이 많아 이와 관련된 활동에 진지하게 다가가고, 진로 또한 고등학교에 입학하여 많은 공부 량과 높은 난이도를 극복하기 위해 각오를 새롭게 하고 다양한 시행착오를 거치며 자신만의 공부 법을 발견해 나감. </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝고 활발한 성격으로 긍정정인 에너지가 넘치고 밝게 웃는 미소로 주변을 환하게 만드는 학생임. 따뜻한 마음을 지니고 가슴 속에 사랑이 넘치는 학생으로 교내 생활에서 약자에 대한 배려와 헌신적인 태도를 볼 수 있었음. 1학기 학급 회장을 맡아 학급 내 건의사항 및 소통의 주체로서 체육의 날, 알뜰시장, 수련회 등 학급단위로 학교행사를 준비하는 과정에서 화목하고 민주적인 학급분위기가 형성될 수 있도록 학급 친구들을 배려하고 항상 고민하는 모습이 대견하고 기특했던 학생임. 교내 다양한 캠페인 참여, 알뜰시장 도우미 활동 등 교내활동에 적극적으로 참여하여 준법정신, 봉사정신 등을 키우며 성장하는 모습을 볼 수 있었음.
+학습태도에서 점차적으로 발전하는 모습을 보임. 자기주도성을 갖춘 학생으로 스스로 부족한 부분을 많이 고민하고 교과 선생님과의 상담을 통해 학습습관, 태도 등을 수정해나가면 1년 동안 지속적으로 발전하는 모습을 보였음. 현재의 성취보다 앞으로의 발전이 더욱 기대되는 학생임.
+따뜻한 마음을 가지고 타인을 깊게 이해하고자 노력하는 학생으로 장차 상담치료사로서 타인의 아픔을 치유하고 세상을 밝게 만들어 나갈 인재로 성장할 것이라 확신함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">활발하고 밝은 성격을 지닌 학생으로 밝게 웃는 모습과 특유의 긍정적인 에너지로 주변을 밝게 만드는 학생임. 교사를 대할 때 항상 예의바르게 인사하며 교사에 대한 존경심이 크고, 교사의 지도 방향에 대해 높은 집중과 강한 실행능력으로 발전을 거듭해 나갔으며 성실함과 꾸준함이 돋보이는 학생임. 학급 활동에서 책임감과 봉사정신이 돋보였던 학생으로 체육의 날, 수련활동 등 학급단위 활동에서 정리정돈, 학급 질서유지 등 책임감을 가지고 학급을 위해 헌신하는 모습을 볼 수 있었음.
+교내행사에 적극적이고 진정성있는 자세로 참여했음. 특히 진로탐색을 위해 매일독서운동, 의석관 행사 등에 적극적으로 참여해 어떠한 진로가 자신의 장점을 잘 살려낼 수 있을지 고민하고 담임교사와 상담하여 스스로의 교육활동의 방향성을 정하고 크게 발전하는 모습을 볼 수 있었음.
+현상에 대한 관찰력이 뛰어나고 논리적으로 설명해내는데 있어서 두각을 드러내 이학계열 교과에서 뛰어난 성취를 보이고 발전하고 있어 앞으로의 성취 또한 매우 기대되는 학생임. 성실함을 바탕으로 자신에 대해 깊게 고민하고 항상 발전해나가는 학생으로 장차 약사로서 국가에 이바지 할 수 있는 인재로 성장할 것이라 기대함.
+</t>
+  </si>
+  <si>
+    <t>활발하고 밝은 성격을 지닌 학생으로 밝게 웃는 모습과 은근한 장난끼가 매력적인 학생임. 앳되어 보이는 첫 인상과 다르게 인간관계에 대해 배려와 존중을 기본으로 깊이 있는 관계를 형성해나가는 학생으로 인간관계에서 성숙한 태도를 지니고 있으며 교사를 대할 때 항상 예의바르게 인사하고 존경심이 큰 학생임. 학급에서 홍보부 부장으로서 반티제작, 수련회 장기자랑 준비 등을 맡아 책임감 있는 모습을 보였으며 특유의 긍정적인 에너지를 통해 체육의 날, 소풍 등 학급단위 활동이 즐거운 분위기에서 이루어 질 수 있도록 기여함.
+논리적이고 비판적인 사고가 뛰어난 학생으로 이학계열 교과에서 뛰어난 모습을 볼 수 있었음. 학습 방법과 방향성에 대해 고민이 많았던 학생으로 학습태도에서 성실함과 꾸준함이 돋보였던 학생이며 멘토-멘티활동, 담임교사와의 상담을 통해 학습방법을 조금씩 개선해 나가 본인이 습득한 지식을 구조화시키는 훈련을 통해 학업성취에서도 조금씩 발전하는 모습을 볼 수 있었음.
+주변의 약자를 배려할 줄 아는 따뜻한 마음을 가진 학생으로 미래에 로봇공학자로서 어려운 사람들을 돕고 사회를 따뜻하게 만들어갈 인재로 성장할 것이라 기대함.</t>
+  </si>
+  <si>
+    <t>씩씩하고 활발하고 도전하길 좋아하는 학생이며 동시에 세심하고 학급 친구들 한명한명을 챙겨주는 따뜻한 마음과 배려심을 가진 학생임. 용의복장, 수업태도, 교내외 생활 중 준법성 및 출결상태, 자기주도적 학습자세 등을 종합적으로 평가하는 학생생활평가제(상벌점제)(2019.03.18.-2019.12.20.)에서 최고 등급의 높은 점수를 받아 급우들의 모범이 되었으며 2학기 학급회장을 맡아 학급내 의사결정이 민주적이고 합리적으로 이루어 질 수 있도록 노력함.
+자신의 진로에 대해 고민이 많았던 학생으로 담임교사와의 상담, 독서, 졸업생 전공탐색의 날 등의 교육활동에 진정성있게 참여하여 무대디자이너라는 구체화된 목표를 세우고 이를 실현시켜나가기 위해 스스로 영화, 공연 등의 무대연출을 분석하고 교내 발악콘서트에 스텝으로 참가해 자신이 배운것들을 실현해 보는 등 자기주도적으로 계획을 수립하고 실행시켜나가는 능력이 뛰어난 학생임. 일년동안 누구보다 큰 발전과 성장을 이룬 학생으로 학생이 희망하는 미술분야에서도 뛰어난 성취와 잠재력을 보이고 있어 미래에 무대디자이너로서 자신의 꿈을 유감없이 펼쳐나갈 것이라 확신함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">따뜻한 마음을 가지고 주변사람들을 배려하고 편하게 만들어 주어 학급에서 많은 친구들이 의지했던 학생으로 학급에서 갈등이나 분쟁이 일어날 때 소통의 창구로서 이를 원만하게 해결하여 1년간의 학급을 운영하는데 큰 도움이 됐던 학생임. 학급 환경부 부원으로서 환경미화의 날, 학급 대청소 때 솔선수범하여 봉사하는 모습을 볼 수 있었음.
+자신의 진로에 대해 고민이 많았던 학생으로 담임교사와의 상담, 매일 독서운동 등을 통해 자신의 장점이 무엇이고 장점을 살릴 수 있는 진로가 무엇이 있는지 꾸준하게 탐색하는 모습을 볼 수 있었음.
+뛰어난 어학능력을 갖춘 학생으로 특히 중국어와 중국문화에 큰 관심을 가지고 있어 자기주도적으로 중국어 학습계획을 세워 꾸준하게 발전해나가는 모습을 보였음. 학급 멘티-멘토 활동을 통해 자신의 부족한 부분을 개선하기 위해 부단히 노력하였으며 아직 교과적인 성취로는 드러나지 않았지만 특유의 성실함과 노력을 바탕으로 큰 발전을 이룰 것이라 확신함.
+</t>
+  </si>
+  <si>
+    <t>차분하고 예의바르며 준법정신이 돋보이는 학생으로 1학기 학급 부회장으로서 학급내 질서유지와 학급 의사결정이 합리적인 절차를 통해 이루어 질 수 있도록 학급을 이끌었으며 수련회, 체육의 날 등 학급단위 행사에서도 항상 솔선수범하고 책임감 있는 모습을 보여 학급 친구들과 담임교사에게 두터운 신뢰를 받음.
+어떠한 일을 하던지 철저한 계획을 세우고 이를 실행시켜나가는 능력이 매우 뛰어나며 끊임 없는 자기반성을 통해 자신이 보완해야할 부분을 정확히 알고 매 시험 교사와의 상담을 통해 학습계획을 수정해나가 학업성취도에서도 매우 우수한 모습을 보였음. 특히 현상에 대한 관찰능력이 뛰어나고 이를 논리적으로 분석하고 구조화시키는데 탁월한 재능을 지니고 있어 이학계열과목에서 뛰어난 성취와 역량을 드러내는 학생임. 지적호기심이 풍부해 자신이 진로로 하고 있는 생명공학 분야에 대한 책을 읽으며 지식의 폭을 지속적으로 넓혀나가며 발전을 거듭해 나갔음.
+책임감과 리더십이 돋보이며 교육활동의 모든 부분에서 뛰어난 성취를 보인 학생으로 미래 생명공학 연구원으로서 4차산업혁명을 주도하고 사회를 위해 헌신할 인재로 성장할 것이라 확신함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">밝고 활발한 성격으로 긍정정인 에너지가 넘치고 밝게 웃는 미소로 주변을 환하게 만드는 학생임. 특유의 에너지로 교내 체육의 날, 수련회 등에서 장기자랑, 계주대표로서 반 분위기를 주도했으며 학급 체육 도우미를 맡아 플래시몹 단장을 맡아 친구들에게 동작을 알려주고 학급 학생들이 건강한 학교생활을 하는데 이바지함. 또한 주변 공감능력이 뛰어나 또래 상담 동아리를 하면서 주변친구들의 이야기를 들어주고 위로해주어 주변 친구들에게 항상 힘이되주는 모습을 볼 수 있었음. 
+체육지도자를 진로로 희망하고 있으며 이를 위해 희망학과 선배와의 만남, 체육교과 선생님을 통해 세부 목표를 세우고 운동과 학업에서 두루 성실하게 임하는 모습을 볼 수 있었음. 건강한 신체뿐만 아니라 건강한 마음을 갖춘 학생으로 봉사활동을 통해 체육지도자로서 건강한 품성을 길러내기 위해 타인을 이해하고 공감하는 것에 대해 깊게 고민하는 성숙한 모습을 보임.
+무엇을 하던지 주위에 에너지를 불어넣는 긍정이 넘치는 학생으로 다른 사람들의 건강한 신체, 건강한 마음 모두 길러내는 훌륭한 체육지도자로 성장할 것이라 확신함. </t>
+  </si>
+  <si>
+    <t>차분하고 조용한 성격이지만 주변 친구들의 이야기를 잘 들어주고 배려하는 따뜻한 마음을 지니고 있어 많은 친구들이 좋아하고 의지하는 학생임. 학급활동에서 드러나진 않지만 책임감을 가지고 묵묵한 태도로 임하는 모습을 볼 수 있었음. 학급 문화부 부원으로서 소풍, 체험활동에서 학급단위 프로그램을 기획했으며 학급내 단합력을 기르고 타인을 존중하고 배려하는 문화가 확립될 수 있도록 노력함. 체육의 날에 학급 대표로 거의 모든 경기에 출전해 힘든 와중에 주위의 친구들을 챙기고 끝까지 남아 정리정돈, 질서유지에 힘쓰는 책임감있는 모습을 볼 수 있었음. 
+다양한 진로에 관심을 가지고 있는 학생으로 졸업생과의 만남, 진로활동 시간 등을 통해 치위생사라는 직업에 관심을 가졌으며, 유튜브에 관심이 많아 방송영상편집 등에 관심을 가지고 있으며 자신의 진로를 구체화시키고 실현하기위해 담임교사, 교과교사와의 상담을 통해 세부적인 목표를 세우고 하나씩 실행해나가며 발전을 거듭해 나감.
+조용하지만 자신의 목표를 향해 한걸음씩 나아가는 학생으로 어떠한 분야에서 무슨 일을 맡더라도 자신과 주변사람들, 사회에 이바지할 수 있는 민주시민으로서 성장할 것이라 기대함.</t>
+  </si>
+  <si>
+    <t>씩씩하고 활발하며 도전하기를 좋아하고 자신감이 넘치는 학생임. 개방적이고 자유로운 성격으로 주변 친구들과 폭넓은 교우관계를 형성하고 있음. 동시에 주변 친구들의 이야기를 잘 들어주고 배려하는 따뜻한 마음을 지니고 있어 많은 친구들이 좋아하고 의지하는 학생임. 학급활동에서 드러나진 않지만 책임감을 가지고 묵묵한 태도로 임하는 모습을 볼 수 있었음. 기획능력이 뛰어난 학생으로 학급 문화부 부원으로서 소풍, 체험활동에서 진행할 학급단위 프로그램이 다채롭고 질서있게 운영될 수 있도록 기획함.  
+본인의 학습 계획에 대한 고민이 많았던 학생으로 자기주도적으로 학습계획을 세우고 실행해 나가는 능력이 뛰어남. 또한 멘토-멘티 활동 등을 통해 학급친구들과 부족한 부분에 대해 피드백하고 함께 성장해 나가는 모습을 보였으며 자기반성적인 사고를 통해 일년 동안 꾸준히 학업적으로 발전해나가는 모습을 볼 수 있었음. 자신의 진로인 회계사로서의 지식의 폭을 넓혀나가기 위해 신문기사를 스크랩하고 관련 도서를 찾아 읽는 등 자기주도적인 진로 활동 계획 수립 및 실행능력을 볼 수 있었음. 자신감 넘치고 자기주도성이 뛰어난 학생으로 앞으로의 지속적인 발전이 기대되는 학생임.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 매사에 열심히 하려는 모습이 기특한 학생으로 항상 밝은 모습으로 자신을 발전시키고자 끊임없이 노력하는 긍정적인 의지가 돋보임. 자신의 주관이 뚜렷하고 확신이 있어 담임교사와 상담시간, 학급회의 시간에도 본인의 생각을 분명히 전달하고 표현하는 능력이 뛰어났으며 소수의 의견을 존중하고 합리적인 절충안을 제시하여 학급회의가 민주적으로 진행되는데 크게 기여함. 
+자신의 진로, 관계, 학업 등에 대해 평소에 고민이 많았던 학생으로 끊임없는 자아성찰과 고민을 통해 인격적으로 성숙하는 모습을 볼 수 있었음. 특히 미래 언론인으로서 가져야 할 가치관을 정립 하고자 독서, 동아리 활동, 교과, 담임선생님과 상담 등을 하며 스스로 발전시켜 나가려는 모습이 인상적이었음. 학업에 있어서도 자기주도적인 계획 수립능력과 실행능력이 뛰어난 학생으로 현재보다 더욱 큰 성취역량을 보일 것이라 확신함. 
+뚜렷한 주관과 동시에 타인의 의견을 존중하고 자아성찰을 통해 끊임없이 발전하고 노력하는 학생으로 미래 언론인으로서 사회의 진실을 대변하고 약자를 보호하며 사회의 정의를 실현할 인재로 성장할 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>차분하고 조용한 성격이지만 주변 친구들의 이야기를 잘 들어주고 배려하는 따뜻한 마음을 지니고 있어 많은 친구들이 좋아하고 의지하는 학생임. 학급활동에서 드러나진 않지만 책임감을 가지고 묵묵한 태도로 임하는 모습을 볼 수 있었음. 학급 활동에서 책임감과 봉사정신이 돋보였던 학생으로 체육의 날, 수련활동 등 학급단위 활동에서 정리정돈, 학급 질서유지 등 책임감을 가지고 학급을 위해 헌신하는 모습을 볼 수 있었음.
+경찰행정공무원이라는 직업에 대해 확신을 가지고 있으며 희망학과 선배와의 만남을 통해 사회학과, 경찰행정학과 선배와의 대화를 통해 경찰행정공무원이 갖춰야할 윤리적 자질과 사명감에 대해 공감하고 자신의 진로를 실현하기 위해 세부적인 계획을 세우고 하나씩 실행해 나가며 발전해 나가는 모습을 볼 수 있었음. 또한 독서활동을 통해 사회적 이슈들을 접하고 이를 해석하는 관점에 대해 고찰하면서 정의로운 사회는 무엇인가에 대해 고민하는 성숙한 태도를 보임.
+조용하지만 자신의 목표를 향해 한걸음씩 나아가는 학생으로 정의사회를 실현하고 국민에게 신뢰받는 경찰행정공무원이 될 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>매사에 열심히 하려는 모습이 기특한 학생으로 항상 밝은 모습으로 자신을 발전시키고자 끊임없이 노력하는 긍정적인 의지가 돋보임. 착하고 온순한 성격으로 매사 웃는 얼굴을 하고 있는 긍정적인 학생이며, 사교성이 뛰어남. 학급 총무부 부원으로서 학급단위 행사의 프로그램들을 기획하고 운영하는데 책임감을 보였으며 학급의 궂은 일을 마다하지 않고 묵묵하게 해나가는 성숙한 태도를 보인 학생임.
+노력과 꾸준함이라는 단어가 잘 어울리는 학생으로 1년 동안 꾸준히 발전해옴. 매번 시험, 수행평가 후에 담임교사와 상담해 자신이 부족한 부분을 찾아 개선하려 노력했고 자신이 기대했던 결과를 얻지 못하더라도 강한 의지와 인내심으로 묵묵하게 앞으로 나아가 한 해동안 지속적으로 발전하는 모습을 볼 수 있었음. 자신의 진로에 대해서도 고민이 많았던 학생으로 희망학과 선배와의 만남에도 진지한 자세로 참여해 자신의 진로를 구체화시키고 목표를 세워 하나씩 실행해나가는 모습을 볼 수 있었음.
+선천적으로 온순하고 착한 성격과 공동체에서 자신의 역할을 책임감있고 묵묵하게 수행해나가는 학생으로 미래에 약사로서 사람들의 몸과 마음 모두 치유해 줄수 있는 인재로 성장할 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>활발하고 씩씩한 성격으로 자신의 주관이 뚜렷하고 리더십이 있어 많은 친구들이 따르고 신뢰하는 학생임. 매사에 의욕적이고 적극적이어서 수련회, 체육의 날, 봄 소풍 등 학급단위 행사의 분위기를 주도하고 프로그램들을 다채롭게 운영함. 멘토-멘티 활동에서도 주도적인 역할을 수행하여 학급친구들과 함께 지속적으로 발전하는 모습을 볼 수 있었음.
+의료계 종사자라는 자신의 진로에 대해 진지하게 고민하며 봉사활동, 졸업생과의 만남 등의 기회를 통해 의료인으로서 가져야 할 가치관과 자신의 진로희망을 위해 달성해야할 세부적인 목표를 수립하고 하나씩 실행해나가며 성장하는 모습을 보임. 특히 봉사활동을 통해 의료인으로서 몸을 치유하는 것뿐만 아니라 타인의 마음의 병 또한 고쳐나가겠다고 다짐하는 성숙한 태도를 보였음.
+학업에서 학원에 의존하지 않고 스스로 공부하는 것의 중요성을 깨닫고 학습플래너, 학습 점검표 등을 작성하여 담임교사와 상담하고 부족한 부분을 채워나가기 위해 부단히 노력했으며 앞으로 괄목할만한 발전이 있을거라 기대하는 학생임.
+스스로에 대한 끊임없는 고민과 의욕적인 태도, 성실함을 갖춘 학생으로 자신의 목표를 더욱 확고히 하고 반드시 실현시켜 나갈 것이라 확신함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">밝고 활발한 성격으로 긍정정인 에너지가 넘치고 밝게 웃는 미소로 주변을 환하게 만드는 학생임. 또한 자신의 주관이 뚜렷하고 확신이 있어 학급내 의사결정, 계획 수립 과정에서 자신의 의견을 조리있게 전달하는 모습이 인상적이었던 학생임. 체육의 날, 수련회 등 학급단위 행사에서 주변친구들을 독려하고 단합하기 위해 주변 친구들을 잘 이끌어 나갔음.
+언론인이라는 진로희망에 대한 확신이 뚜렷하여 희망 직업인과의 만남, 희망학과 선배와의 만남 등을 통해 언론인으로서 갖춰야 할 자질과 사명감, 세부적인 목표와 계획들을 수립해나가며 실행에 옮기는 자기주도적인 모습을 볼 수 있었으며, 동아리 활동, 봉사활동 등을 통해 스스로 교육활동의 폭을 넓히며 지속적으로 발전해나가는 모습을 보였음. 학업에서 자기주도적인 모습을 보이고 계획을 세운 것들을 담임교사에게 피드백을 받는 등 꾸준하고 성실한 태도를 보이고 있어 앞으로의 큰 발전이 기대되는 학생임.
+뚜렷한 주관과 확신을 가지고 진실과 정의를 추구하는 언론인으로서 미래 대한민국 사회의 존경받는 언론인으로 성장할 것이라 확신함.
+</t>
+  </si>
+  <si>
+    <t>착하고 온순한 성격이며 타인을 배려하고 공감하는 마음이 따뜻한 학생임. 학급 홍보부 부원으로서 SNS를 통해 학급소식, 학교 소식 및 행사 등을 전달하고 반티제작, 수련회 장기자랑 기획 등을 책임감있게 수행하는 모습을 보임. 이외에도 멘토-멘티활동, 교내 보수연 행사 등에서 솔선수범하는 자세로 친구들을 이끌어나가는 리더십을 갖춤.
+봉사활동을 통해 몸이 아프신 분들을 만나며 간호사의 꿈을 가지게 되었고 현재도 치매할머니들을 위한 봉사활동을 이어나가며 마음의 치유도 함께 나가고자 하는 성숙한 태도를 보였으며, 간호사라는 직업을 위해 동아리 활동, 희망학과 직업인과의 만남, 희망학과 선배와의 만남을 통해 학업계획을 구체적으로 수립하고 꼼꼼하게 실행해나가는 모습을 보임. 교과목 성취도 전반적으로 매우 우수하며 성실함과 겸손함을 바탕으로 꾸준하게 자신의 계획을 실행해 나가는 학업태도를 보이고 있어 더욱 뛰어난 성취를 보일 것이라 기대함. 
+온화하고 이타적인 품성과 자신의 일을 끝까지 다해내는 책임감, 과제집중능력 모두 우수한 학생으로 미래 간호사로서 타인의 몸과 마음 모두 치유해줄 수 있는 따뜻한 인재가 될 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>차분하고 조용한 성격이지만 주변 친구들의 이야기를 잘 들어주고 배려하는 따뜻한 마음을 지니고 있어 많은 친구들이 좋아하고 의지하는 학생임. 학급에서 홍보부 부원으로서 반티제작, 수련회 장기자랑 준비 등을 맡아 책임감 있는 모습을 보였으며 특유의 긍정적인 에너지를 통해 체육의 날, 소풍 등 학급단위 활동이 즐거운 분위기에서 이루어 질 수 있도록 기여함.
+어렸을 때부터 메이크업에 관심이 많아 메이크업 아티스트라는 직업에 확신을 가지고 세부적인 목표들을 세워 하나씩 실행해 나가는 모습을 볼 수 있었으며 학업적으로도 자신이 부족한 부분을 채워나가고 학교에서 이루어지는 교육활동에 게을리 하지 않는 성실한 태도를 보였음. 체육의 날, 수련회 때 반 친구들에게 메이크업을 해주며 행복해하는 순수한 모습을 보였으며 본인이 선택한 진로에서 본인의 행복을 찾고 다른 사람에게 행복함과 기쁨을 줄 수 있는 사람으로 성장할 것이라 기대함.
+조용하지만 자신의 목표를 향해 한걸음씩 나아가는 학생으로 지금처럼 다른 사람을 행복하게 해주고 그 안에서 자신의 행복을 찾아 나갈 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>매사에 열심히 하려는 모습이 기특한 학생으로 항상 밝은 모습으로 자신을 발전시키고자 끊임없이 노력하는 긍정적인 의지가 돋보임. ‘노력의 천재’라는 단어가 생각날 정도로 1년 동안 지켜본 학생들 중 자신의 발전을 위해 가장 노력했던 학생임. 매번 시험, 수행평가 후에 담임교사와 상담해 자신이 부족한 부분을 찾아 개선하려 노력했고 이를 통해 일취월장하는 모습을 보이며 학생 스스로 '노력이란 스스로를 발전시키고 성숙한 사람으로 만드는 것'으로 정의 내릴 정도로 인격적으로도 성숙한 태도를 보임.
+화장품 마케터라는 진로에 대해 어렸을 적부터 흥미를 보이고 확신을 가지고 있으며 이를 실현시키기 위해 동아리 활동, PPT 발표, 디자인 씽킹 행사 등에 참여해 경영인으로서 가져야 할 자질을 갖추고자 노력했으며, 학업에 있어서도 스스로 세운 계획들을 담임교사, 교과교사를 통해 피드백 받고 노력과 성실함으로 이어나가 괄목할 만한 성장을 이루었음.
+누구보다 노력의 의미를 잘 알고 있고 한해 동안 가장 큰 발전을 이룬 학생으로 앞으로의 발전이 더욱 기대되며 마케터로서 자신의 꿈을 이루고 노력을 통한 성공의 의미를 사회에 전파할 수 있는 인재로 성장할 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>차분하고 조용한 성격이지만 주변 친구들의 이야기를 잘 들어주고 배려하는 따뜻한 마음을 지니고 있으며 교우관계에 있어서 신중한 만큼 깊은 관계를 유지하는 학생임. 학급활동에서 드러나진 않지만 책임감을 가지고 묵묵한 태도로 임하는 모습을 볼 수 있었으며 학급 문화부 부원으로서 소풍, 체험활동에서 학급단위 프로그램을 기획했으며 학급내 단합력을 기르고 타인을 존중하고 배려하는 문화가 확립될 수 있도록 노력함. 체육의 날에 학급 대표로 거의 모든 경기에 출전해 힘든 와중에 주위의 친구들을 챙기고 끝까지 남아 정리정돈, 질서유지에 힘쓰는 책임감있는 모습을 볼 수 있었음. 
+뮤지컬 분야에 관심이 많고 진로로 희망하고 있어 뮤지컬 동아리 활동, 뮤지컬 관람 등을 통해 해당 분야에서 자신의 진로희망을 구체화시키고 방학중 거의 매일 8시간씩 뮤지컬 공연연습을 하는 등 해당분야에 흥미가 많고 많은 노력을 기울이는 학생임. 전문적인 지도를 받지 않았음에도 불구하고 발성과 음악적 표현력이 뛰어나며 자연스러운 연기와 제스처로 관객들에게 큰 호응을 받았음. 앞으로 더욱 발전하는 모습으로 많은 사람들의 사랑을 받을 수 있는 공연예술가가 될 것이라 기대함.</t>
+  </si>
+  <si>
+    <t>조용히 자신의 목표를 향해 나아가는 학생으로서 다른 사람 눈에 띄지는 않지만 담임교사로서 1년간 지켜보았을 때 누구보다 뚜렷한 목표를 가지고 있고 이를 향해 꾸준하게 전진하는 학생임. 글을 통한 소통으로 자신의 생각을 더 깊이 있게 전달하고 경청하는 자세로 타인과 긍정적이고 깊이 있는 관계를 만들어 나가며 늘 인관관계에 대한 고민을 가지고 타인의 입장을 생각할 줄 아는 학생임. 학급 문화부 부장으로서 소풍, 체험활동에서 학급단위 프로그램을 기획했으며 학급내 단합력을 기르고 타인을 존중하고 배려하는 문화가 확립될 수 있도록 노력함. 
+어문/어학 계열에 대한 흥미가 크고 관련된 직업을 갖고자하는 자신의 진로에 대해 어렸을 적부터 확신을 가지고 있어 꾸준하게 인증시험 공부, 원서 독해 등을 이어나가고 있으며 이를 바탕으로 외국어 교과에도 뛰어난 성취를 보이고 있음. 또한 매일독서운동에서 꾸준히 독서를 이어나가며 언어가 가져다주는 사회와의 소통과 언어의 역할에 대해 고찰하는 기회를 가짐.
+뛰어난 언어능력과 언어에 대해 깊이 있게 고민하고 이해하고 있는 학생으로 미래에 언어를 통해 국제 사회의 구성원끼리의 소통을 주관하는 글로벌 인재로 성장할 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>씩씩하고 활발한 성격으로 긍정적인 에너지가 넘치고 활동적인 학생임. 매사에 의욕적이고 적극적이어서 수련회, 체육의 날, 봄 소풍 등 학급단위 행사에서 학급의 분위기를 주도했으며 2학기 학급 부회장으로서 학교 과제, 수행평가 등을 공지하는 역할을 자원해 책임을 다하는 모습을 보였음.
+수학과목에서 굉장히 뛰어난 재능을 보인 학생으로 학업 성취역량으로 보여진 것 이상으로 창의적인 아이디어와 깊이 있는 수학적 사고력이 돋보이며 같은 반 학생들에게 멘토-멘티 활동을 통해 수학을 알려주고 어려운 내용을 알기쉽게 설명하는 모습을 보여 수학교사로서의 자질과 실력 모두 갖추고 있다고 판단하는 학생임. 교내 교육활동에도 적극적인 태도로 임하여 교내 학교폭력예방캠페인에 참여해 교우관계에 대해 고민하고 함께 성장할 수 있는 학교를 만드는 것에 대해 고민했으며 희망직업인과의 만남을 통해 수학교사가 되기 위해 필요한 세부목표를 세우고 하나씩 실행해 나가는 모습을 보였음. 
+뛰어난 실력과 긍정적인 에너지를 갖춘 학생으로 가르치는 학생들의 지식의 폭을 넓혀줄 뿐만 아니라 학생들의 교육활동에 활력을 불어넣어 생동감 넘치는 교실을 만들어갈 교사로 성장할 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>착하고 온순한 성격으로 정이 많고 따뜻한 마음으로 주변친구들을 잘 챙겨주는 학생이며 봉사활동, 학급활동에서도 어려운 상황에 놓인 사람들을 생각하고 품어주려는 성숙한 태도를 보이는 학생임. 생각이 깊은 학생으로 관계에 있어서도 신중하여 두텁고 끈끈한 교우관계를 형성하고 있음. 자신이 맡은 일에 대하여 책임감을 가지고 묵묵하게 해나가는 학생으로 학급 총무부 부장으로서 학급활동을 기획하는데 주도적인 역할을 수행했음.
+자신의 가치관과 그에 따른 진로 대한 고민이 많았던 학생으로 담임교사와의 상담, 희망학과 선배와의 만남 등을 통해 자신이 좋아하는 것, 본인의 행복의 가치, 진로계획 등을 진지하게 고찰하는 모습을 보였음. 학급단위 행사에서 반 친구들에게 메이크업을 해주고 알려주면서 친구들과 함께 즐거움을 느낌과 동시에 아름다움을 창조한다는 것에 대해 흥미를 느끼며 메이크업 아티스트를 진로로 희망하게 되었으며 이를 바탕으로 자격증 공부, 미용학과 지망을 위한 학업공부 계획 등을 세우고 하나씩 실행해나가는 모습을 보였음.
+사람들에게 외적인 아름다움을 줄 뿐만 아니라 마음의 따뜻함도 함께 불어넣어 주어 자신과 주변의 행복을 줄 수 있는 사람으로 성장할 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>차분하고 온순한 성격으로 웃음이 많고 긍정적인 학생으로 주변 친구들에게 항상 밝은 미소를 짓게하는 학생임. 동시에 자신의 주관이 뚜렷하고 의사전달 능력이 탁월하여 학급내 의사결정 과정에서 자신의 의견을 분명하고 논리적으로 전달함으로서 합리적인 의사결정이 수립되는데 기여함. 또한 용의복장, 수업태도, 교내외 생활 중 준법성 및 출결상태, 자기주도적 학습자세 등을 종합적으로 평가하는 학생생활평가제(상벌점제)(2019.03.18.-2019.12.20.)에서 매우 높은 점수를 받아 급우들의 모범이 됨.
+화학연구원이라는 자신의 진로에 대해 확신을 가지고 있어 자신의 진로에 대한 세부적인 목표를 세우고 이를 실현하기 위해 동아리활동, 교과수업 등을 통해 화학연구원으로서 필요한 지식의 폭과 깊이를 더해나감. 또한 매일독서운동을 통해서 과학연구원이 가져야할 윤리적 가치 등에 대해 고찰하고 다른 학문과의 연계성 등을 조사하여 미래사회에 요구되는 융합적 사고력을 갖추기 위해 노력함.
+뚜렷한 목표와 이에 대한 과제집착력, 실행능력이 매운 뛰어난 학생으로 화학연구원으로서 뛰어난 실력을 갖추고 사회에 공이 될 수 있는 인재로 성장할 것이라 확신함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한 해동안 가르친 학생들 중 '군계일학'이라는 표현이 떠오를 정도로 가치관과 생활태도, 학업 능력 모든 부분에서 교사에게 감동을 주었던 학생임. 봉사정신이 투철하여 보이지 않는 곳에서 학급의 궂은 일을 도맡았으며 따뜻한 마음을 가지고 있어 반에서 소외되는 학생에 옆에 항상 자리하여 마음의 위로를 주었던 학생임. 자신의 주변 사람들로부터 오는 행복, 아픔, 상실 등에 대한 고찰을 통해 얻어진 깊은 공감능력을 가지고 있어 교사가 되었을 때 누구보다 학생을 잘 이해해주고 품어줄 수 있는 인격을 갖추었다고 판단함.
+역사교사를 진로로 희망하여 평소에 역사를 가르치는 사람으로서 가져야할 역사관, 역사교육의 목표, 교육자로서 학생을 대하는 태도, 가치관 등을 깊이 고민하고 독서활동을 통해 이를 정립해나가려는 성숙한 모습을 볼 수 있었음. 학업 부분에서도 누구보다 성실하고 노력하는 태도를 지니고 있으며 매우 뛰어난 성취에도 항상 겸손하여 자신의 부족한 부분을 찾고 반드시 극복해 나감과 동시에 잘하는 과목에서는 알고자하는 지식에 한계를 두지않고 깊이 파고드는 학생임. 장래에 교사로서 학생들에게 길을 밝혀주고 행복함과 마음의 위로를 줄 수 있는 참된 교육자로 성장할 것이라 확신함.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">밝고 활발한 성격으로 웃음이 넘치는 학생으로 학급 분위기를 환하게 만들었던 학생임. 교사를 대할 때 항상 예의바르게 인사하며 교사에 대한 존경심이 크고, 교사의 지도 방향에 대해 높은 집중과 강한 실행능력으로 발전을 거듭해 나갔으며 성실함과 꾸준함이 돋보이는 학생임. 학급활동에서도 적극적이고 책임감있는 태도로 학급 의사결정 과정에서 항상 처음으로 의견을 제시하는 학생이었으며, 학습부 부원으로서 고사기간 중 학습분위기를 조성하고 친구들이 모르는 문제는 반드시 알아내 설명해주는 모습을 보였음.
+자기주도적인 학업계획능력을 가진 학생으로 생명공학연구원으로서 지식의 폭을 확장하기 위해 매일독서운동, 교내 특강 등에 적극적으로 참여했음. 또한 희망직업인과의 만남, 희망학과 선배와의 만남 등을 통해 진로포트폴리오를 작성하고 세부적인 계획을 수립하여 담임교사, 교과교사와의 상담을 통해 구체화하고 학습계획을 세워 하나씩 목표를 달성해나가는 체계적이고 성실한 모습을 볼 수 있었음. 이와같은 태도로 이학계열 과목에서 우수한 교과성취를 보이고 있어 학생이 희망하는 꿈과 목표에 반드시 다다를 것이라 확신함.
+</t>
+  </si>
+  <si>
+    <t>착하고 온순한 성격으로 정이 많고 따뜻한 마음으로 주변친구들을 잘 챙겨주는 학생이며 봉사활동, 학급활동에서도 어려운 상황에 놓인 사람들을 생각하고 품어주려는 성숙한 태도를 보이는 학생임. 생각이 깊은 학생으로 관계에 있어서도 신중하여 두텁고 끈끈한 교우관계를 형성하고 있음. 또한 학생생활평가제(상벌점제)(2019.03.18.-2019.12.20.)에서 최고 등급의 점수를 받아 급우들의 모범이 됨.
+일년동안 학업적으로 누구보다 큰 발전을 이룬 학생으로 교사에 대한 존경심과 신뢰가 커 교사와 함께 세운 계획에 대해서는 절대 포기하지않고 반드시 수행해내는 모습을 보였음. 학기초 학업적으로 많이 힘들어했으나 노력과 꾸준함의 결실이 교과성취로 이어지고 성장하면서 노력의 가치를 깨닫고 자신감을 얻게 됨. 교내활동에 대해서도 적극적으로 참여하여 자신이 활동한 모든 것에서 의미를 찾고자 교사와 상담하고 고민하였으며 '대기만성'이라는 말처럼 시간이 갈 수록 학생의 잠재력이 만개해 나가는 것을 느낄 수 있었음. 고등학교 1학년이라는 시간을 누구보다 치열하게 보냈던만큼 앞으로의 길에서 결실을 맺고 다른 사람들에게 노력의 가치를 이야기해줄 수 있는 사람으로 성장하길 바라며 그렇게 될 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>차분하고 조용한 성격이지만 주변 친구들의 이야기를 잘 들어주고 배려하는 따뜻한 마음을 지니고 있어 많은 친구들이 좋아하고 의지했음. 미술교과에서 뛰어난 재능과 역량을 보이고 있어 반 아이들을 위해 그림을 그려주며 보람을 느끼는 등 순수함과 착한 마음을 가진 학생임. 학급 활동에서 책임감과 봉사정신이 돋보였던 학생으로 체육의 날, 수련활동 등 학급단위 활동에서 정리정돈, 학급 질서유지 등 책임감을 가지고 학급을 위해 헌신하는 모습을 볼 수 있었음. 
+산업디자인, 제품디자인 분야를 진로로 희망하여 체계적인 진로활동계획을 수립해 디자인부 활동, 흡연예방, 학교폭력예방 엽서그리기, 의류디자이너와의 만남, 디자인학과에 재학중인 선배와의 만남, 미술관련 독서활동, 미술교과반장 등 모든 교내활동에서 집중도 있게 자신의 역량을 키우는 모습을 보였으며 타 교과목도 게을리하지않고 성실하게 부족한 부분을 채워나가는 성실한 태도를 볼 수 있었음
+마음 속에 정과 따뜻함, 타인에 대한 애정이 많고 뛰어난 실력을 갖추고 노력하여 발전을 거듭해나가는 학생으로 미술작품으로서 사람들의 마음에 감동을 주고 소통하며 공감하는 인재로 성장할 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>매사에 열심히 하려는 모습이 기특한 학생으로 항상 밝은 모습으로 자신을 발전시키고자 끊임없이 노력하는 긍정적인 의지가 돋보임. 자신의 주관이 뚜렷하고 확신이 있어 담임교사와 상담시간, 학급회의 시간에도 본인의 생각을 분명히 전달하고 표현하는 능력이 뛰어났으며 소수의 의견을 존중하고 합리적인 절충안을 제시하여 학급회의가 민주적으로 진행되는데 크게 기여함.
+자기주도적인 학업계획능력을 가진 학생으로 소프트웨어개발자를 진로희망으로 하여 희망직업인과의 만남을 통해 어플리케이션, 로봇, 인공지능 등에서 소프트웨어 개발이 어떻게 이루어지는지를 확인하고 스스로 자바, 파이썬 등의 프로그래밍을 학습하는 모습을 보였으며 담임교사, 교과교사와의 상담을 통해 구체화하고 학습계획을 세워 하나씩 목표를 달성해나가는 체계적이고 성실한 모습을 볼 수 있었음. 이와같은 태도로 이학계열 과목에서 우수한 교과성취를 보이고 있어 학생이 희망하는 꿈과 목표에 반드시 다다를 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>차분하고 조용한 성격이지만 주변 친구들의 이야기를 잘 들어주고 배려하는 따뜻한 마음을 지니고 있으며 교우관계에 있어서 신중한 만큼 깊은 관계를 유지하는 학생임. 학급활동에서 드러나진 않지만 책임감을 가지고 묵묵한 태도로 임하는 모습을 볼 수 있었으며 학급 바른생활부 부원으로서 학급내 단합력을 기르고 타인을 존중하고 배려하는 문화가 확립될 수 있도록 노력함. 체육의 날에 대부분의 경기에 출전해 힘든 와중에 주위의 친구들을 챙기고 끝까지 남아 정리정돈, 질서유지에 힘쓰는 책임감있는 모습을 볼 수 있었음.
+신체적으로 힘든 부분이 있어 교육활동에 적극적으로 참여하지 못했으나 자신이 챙기지 못한 부분을 자기주도적인 계획하에 보완하고 노력하는 모습을 보였음. 또한 인간관계, 자신의 가치관, 삶의 방향성 등에 대한 깊은 고민을 통해 성숙하고 어른스러운 생각을 가지고 있으며 교사에게 예의바르고 훌륭한 행실을 갖춘 학생임.
+비록 만족할만한 교육적 목표를 도달하진 못했으나 어려움을 극복해낼 수 있는 의지와 노력이 남다른 학생으로 점차 발전하여 자신의 꿈을 이루고 행복을 찾을 수 있을 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>성격이 온순하고 긍정적이며 부드럽고 동시에 자신만의 주관과 확신을 가지고 있음. 평소에 조용한 것 같지만 활동적이고 끼가 많아 밴드부, 축구부, 체육대회 준비위원 활동, 반 모임 행사 기획 등 주변 친구들에게 활력을 불어넣어 주는 학생임. 외유내강이라는 단어가 무척이나 잘 어울리는 학생이므로 앞으로 따뜻한 카리스마를 지닌 인재로 성장할 수 있으리라 생각함.</t>
+  </si>
+  <si>
+    <t>계획성 있는 성실함을 가장 중요한 덕목으로 학업에 힘씀. 스스로 자신이 부족한 것이 무엇인지 고민하고 이를 담임교사와 상담을 통해 발전하고자 노력하는 진취적인 태도를 지니고 있으며 본인의 생활, 학습습관에 대한 엄격한 기준을 가지고 있어 매주 주말마다 아침 스터디 모임, 축구부 연습에 참여하는 등 시간을 알차게 활용하고 절제되고 규칙적인 생활 습관으로 주변 친구들에게 모범이 되는 학생임.</t>
+  </si>
+  <si>
+    <t>관찰력이 뛰어나고 집요한 탐구욕심을 가지고 있어 우연히 알게 된 사실이더라도 호기심을 가지고 그 원리를 파악하고 스스로 관련 지식을 찾아보는 학생임. 신소재에 관심이 많으며 관련 학과에 진학에 있는 선배를 만나 자신의 진로를 위해 어떤 학과에 진학할지 고민해보고 평소에 화학, 물리학에 관심이 많았던 친구들과 스터디를 진행하며 신소재 공학에서 필요한 과학적 지식을 습득하는 등 자신의 진로에 대한 생각이 뚜렷하고 체계적인 계획을 세워 실행했음. 성실한 학업 태도와 자신의 진로에 대한 뚜렷한 생각, 건전한 생활습관을 갖추고 있어 점차적으로 발전된 모습을 보여줄 것이라 기대하며 자신이 진로로 하는 분야에서 타의 귀감이 될 수 있는 사람으로 성장할 것이라 기대함.</t>
+  </si>
+  <si>
+    <t>씩씩하고 활발하며 도전하기를 좋아하고 자신감이 넘치는 학생임. 개방적이고 자유로운 성격으로 주변 친구들과 폭넓은 교우관계를 형성하고 있음. 주변 친구들의 의견을 잘 들어주는 학생이며 이를 바탕으로 자치회 구성원으로서 학생들의 생활에 어려운 부분을 생활관 규정 재개정에 반영하고 학생들이 참여하고 즐길 수 있는 행사를 기획함. 이 과정에서 타인의 이야기를 경청하는 것을 넘어 진정으로 공감하며 듣는 방법을 배우고 자신이 맡은 역할이 학교 구성원 개개인들에 큰 영향을 미칠 수 있다는 사실에 책임감을 느낌. 자유로우면서도 절제되어 있고 진취적인 성향을 가지고 있어 앞으로의 성장이 기대됨.</t>
+  </si>
+  <si>
+    <t>문과 이과 모두에서 뛰어난 재능을 보이고 있으며 명석한 두뇌와 특유의 강한 의지력으로 높은 학업 성취를 이어나가고 있는 학생임. 뇌과학, 의학에 큰 관심을 보이고 있어 캠벨 생명과학 교재로 스터디 모임을 가졌으며 시냅스를 통한 전위의 전도와 신경전달물질의 전달과정에 대해 집중적으로 탐구함. 본인이 공부한 내용을 다른 친구들에게 가르쳐주는 스터디 방식에서 즐거움을 느끼고 탐구한 내용에 대해 더욱 깊게 이해하게 됨. 뇌과학 의학에 대한 학술적인 호기심을 가졌을 뿐만 아니라 타인에게 직접적인 도움을 줄 수 있는 진로로 나아가고 싶어 하며 뛰어난 실력을 갖춤과 동시에 따뜻한 마음으로 환자를 치료하고 세상을 치유할 수 있는 의사, 뇌과학자가 되고 싶어함.</t>
+  </si>
+  <si>
+    <t>학생은 뛰어난 재능과 노력을 두루 갖추고 있으며 균형 잡힌 인성을 지니고 있어 미래 사회에 큰 기여를 할 수 있는 인재가 될 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>조용히 자신의 목표를 향해 나아가는 학생으로서 다른 사람 눈에 띄지는 않지만 담임교사로서 1년간 지켜보았을 때 누구보다 뚜렷한 목표를 가지고 있고 이를 향해 꾸준하게 전진하는 학생임. 글을 통한 소통으로 자신의 생각을 더 깊이 있게 전달하고 경청하는 자세로 타인과 긍정적이고 깊이 있는 관계를 만들어 나가며 늘 인관관계에 대한 고민을 가지고 타인의 입장을 생각할 줄 아는 학생임. 중학교 때부터 또래상담 동아리를 하면서 타인을 존중하고 배려하는 마음가짐을 키워왔으며 교내 학급활동에서도 교우관계를 차분하게 이끌어감. 국제학술심포지엄에서 일본교환학생 친구와 홈스테이를 하며 외국인 교환학생의 입장에서 한국문화를 잘 이해하고 좋은 추억을 남길 수 있도록 노력함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">평소에 문학, 글쓰기에 관심이 많으며 글로서 세상을 따뜻하게 만들고 다른 사람에게 힘이 되고자 하는 훌륭한 마음을 가지고 있으며 문학 감상, 표현에 있어서 깊이와 창의성을 갖춤. 김춘수 시인의 존재에 대한 철학적 고찰에 관심을 기울여 평소 본인이 품고 있던 ‘사물의 본질’에 대한 생각과 연결 지어 작품을 해석했고 문학을 통해 작가와 소통하는 것을 느낄 수 있을 정도로 깊이 있는 해석을 해냄. </t>
+  </si>
+  <si>
+    <t>사회정의를 실현하는 판사라는 직업에 매력을 느껴 스스로 헌법판례분석에 도전해 사회교과 선생님의 도움을 받아 한 학기동안 연구했었고, 동아리에서 인권을 주제로 활동함.</t>
+  </si>
+  <si>
+    <t>타인에게 진정으로 공감할 수 있는 따뜻한 마음을 지니고 있으며 글쓰기에 탁월한 능력을 갖춘 학생으로 다른 사람의 마음을 움직이고 세상에 감동을 줄 수 있는 뛰어난 글로서 아름다운 세상을 만들어 갈 수 있는 사람이 될 것이라 기대함.</t>
+  </si>
+  <si>
+    <t>온순하고 순수한 마음을 가진 학생으로 활동적이고 긍정적인 에너지가 넘치는 학생임. 막내로서 특유의 맑고 순진한 기운이 느껴지고 주변 친구들과의 관계도 순탄하고 화목함. 운동을 좋아해 담임교사와 친구들과 자주 농구시합을 가졌으며 팀원과 협력하고 항상 누구보다 열심히 뛰는 모습이 인상적이었음. 국제학술 심포지엄에서도 한 번도 해보지 않았던 태권도 공연을 팀원들과 부단히 연습해 완성도 높은 공연을 올려 외국 학생들에게 깊은 인상을 심어주었음.</t>
+  </si>
+  <si>
+    <t>노력과 꾸준함이라는 단어가 가장 잘 어울리며 담임교사가 1년간 지켜보았을 때 누구보다 열심히 학교생활을 해온 학생임. 면학실 감독으로 올라갔을 때 쉬는 시간에도 자기 자리에 앉아 학습에 집중하는 모습을 자주 보았고 면학 시간이 끝난 후에도 가장 늦게 자리에서 일어나 기숙사로 돌아가는 학생임. 매번 시험, 수행평가 후에 담임교사와 상담해 자신이 부족한 부분을 찾아 개선하려 노력했고 자신이 기대했던 결과를 얻지 못하더라도 강한 의지와 인내심으로 묵묵하게 앞으로 나아가는 학생임. ‘시작은 미약하였으나 끝은 창대하리라’라는 말 같이 현재보다는 미래에 큰 발전을 기대하는 학생이며 그렇게 될 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>항공우주분야에 큰 관심을 가지고 수학, 과학 학습에 힘썼으며 특히 과학과목 중 지구과학1을</t>
+  </si>
+  <si>
+    <t>집중적으로 공부하면서 화성에 대해 관심을 가지고 ‘화성 테라포밍’이라는 보고서를 작성하는 등 과학 과목에 흥미와 뛰어난 탐구의지를 보였음.</t>
+  </si>
+  <si>
+    <t>학생은 다른 학생들보다 일찍 노력의 중요성에 대해 깨닫고 눈앞의 성취를 바라보는 것이 아닌 자신의 꿈을 이루기 위해 꾸준함과 성실함을 가장 중요한 가치로 천천히 한걸음씩 나아가는 학생이며 장래에 자신의 가치를 세상에 마음껏 꽃피울 수 있는 인재가 될 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>차분하고 꼼꼼한 성격을 가졌으며 감수성이 풍부하고 스스로와 자신을 둘러싼 관계, 환경 등에 대해 끊임없이 성찰하는 학생임. 교사에게 예의바르고 동시에 자신의 생각을 자신 있게 주장할 수 있어 학급회장으로서 담임과 학생간의 원활한 소통이 이루어질 수 있도록 했으며 주변 친구들을 배려하고 존중할 수 있는 성숙한 인격을 지닌 학생임. 또한 활동적이고 의욕적이어서 학급 반모임, 소규모 테마형 교육여행에서 모임을 주도했으며 ‘비만 없는 교실’이라는 학급 회장 공약을 실천해 바쁜 일상에서도 건강한 생활습관을 가지도록 반 학생들과 운동모임을 주도함. 성숙한 인격과 주변 사람들에게 긍정적 에너지를 주는 밝은 태도, 끊임없는 자신에 대한 성찰을 이어나가는 학생으로서 장래에 ‘존중하는 리더’로서 자신의 주변 사람, 나아가 대한민국을 이끌어 갈 인재로 성장하리라 확신함.</t>
+  </si>
+  <si>
+    <t>다양한 분야에서 끼와 재능을 보이는 학생임. 밴드부 보컬로서 교내 축제 및 발표회에 꾸준히 참여했으며 안정되고 절제된 소리로 감성적으로 음악을 표현함. 자신의 생각을 문학적으로 표현하는 것을 좋아해 시를 즐겨 쓰며 담임교사와 상담을 할 때에도 본인의 생각을 담은 시를 가져와 학생의 평소 생각과 고민을 알 수 있었음. 수학, 과학에서도 뛰어난 성취를 보이고 있으며 교과교사로 1학기 동안 지켜봤을 때 수학적 논리성, 창의성을 두루 갖추고 관찰력과 자기주도성, 탐구능력 모두 뛰어남. 음악, 체육, 인문학, 수학, 과학 어느 하나 가릴 것 없이 뛰어난 재능을 갖추고 있으며 가히 ‘천재’라는 표현이 아깝지 않은 학생임.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">자신의 진로에 대한 고민이 누구보다 많았던 학생임. 다양한 분야에 재능이 있는 만큼 작가, 기자, 의사, 건축가, 경제학자 등 다양한 진로에 대해 고민했으며 졸업생 전공 탐색의 날, 학부모 진로 특강, 담임교사와의 상담 등 여러 진로 설명회에 참여하고 2학년 때에도 세계문명사와 심화 생명 모두를 수강하여 문, 이과를 구분하지 않고 학업을 계획하여 본인의 진로에 대한 고민을 이어나갈 계획임. </t>
+  </si>
+  <si>
+    <t>학생은 자신과 주변에 대해 끊임없이 고민하고 긍정적이고 밝은 인성을 지니고 있으며 다양한 분야에서 뛰어난 재능과 성실함을 두루 갖추고 있어 어떠한 분야에 있던 자신의 가치를 세상에 실현하고 이끌어갈 수 있을 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>착하고 온순하고 성격으로 주변 친구들과 더하거나 덜함이 없이 순탄하고 차분한 관계를 이어나가는 학생임. 동물을 무척이나 좋아해 주기적으로 유기견 보호센터에서 봉사활동을 했으며 친구들과 유기견 지원 캠페인 활동을 하고 동물 보호법에 대한 토론, 동물보호 인식개선을 위한 활동 등을 진행했음. 또한 친구들과 꽃의 그림자라는 프로젝트를 통해 장애를 가진 소년의 사랑 이야기를 다룬 영화를 창작해 사회의 소외된 자들을 이해하고 포용하는 마음을 기름. 장래 아픈 동물을 치료하고 나아가 마음으로 상처받은 동물들을 치유하는 따뜻한 수의사가 될 수 있을 것이라 기대함.</t>
+  </si>
+  <si>
+    <t>학급활동에서도 책임감을 가지고 자신이 맡은 일을 책임감을 가지고 계획적으로 이행해 나갔음. 건강한 생활습관을 가진 학생으로 기숙사에서 지속적으로 모범방으로 선정되었고 준법정신이 뛰어나며 규칙적인 모습으로 타의 모범이 되는 학생임. 꼼꼼하고 성실한 학습태도를 지니고 있어 꾸준함을 가지고 천천히 나아가다보면 큰 발전을 이룰 수 있을 것이라 기대함.</t>
+  </si>
+  <si>
+    <t>수학과 과학에 흥미를 가지고 있으며 특히 장래 수의사가 되기 위해 화학 과목과 생명과학 수업에 성실하게 참여함. 특히 생명과학에 흥미를 가지고 있어 친구들과 스터디 모임을 가져 유전학에 전반적인 내용 탐구를 주제로 1년 간 활동했으며 비록 학업적으로 괄목할 만한 성취를 이루진 못했으나 수의사라는 직업에 대해 누구보다 뚜렷한 확신을 가지고 있고 특유의 성실함과 꾸준함으로 큰 발전을 이룰 수 있을 것이라 기대함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">맑고 순수한 마음을 가졌으며 초등학교 때부터 중증 장애인 배식 보조 활동을 이어오면서 타인을 배려하고 존중하는 마음이 몸에 베어 있는 학생으로 소규모테마 교육여행에서도 반 아이들과 잘 어울리지 않는 아이들을 모아 학급 내 활동에 참여할 수 있도록 챙기는 모습을 보였음. 또한 활발하고 씩씩하며 자기 주관이 뚜렷하고 책임감이 강한 학생임. 다른 학생들에 비해 남다른 포부와 자신감이 있어 학급 행사, 교내 행사에서 가장 적극적인 태도를 보이는 학생으로 총학생회 정, 부회장 선거 출마해 신입생이지만 자신감 넘치는 어조로 자신의 공약, 비전 등을 연설하고 개교기념식 행사에서 전교생 앞에 나가 자신이 지은 시를 낭송함. 이외에도 하나 학생생활규정 재개정 대토론회, 하나 학생자치대토론회에서도 패널로 참여하는 등 꾸준하고 적극적으로 교내 행상에 참여했음. 1학기 학급 부회장으로서 반장을 도와 학급행사를 진행할 때 책임감 있는 모습을 보였으며 2학기에도 학급 내 멀티미디어 기자재 관리를 맡아 책임감 있는 모습을 보였음. </t>
+  </si>
+  <si>
+    <t>뛰어난 언어 능력을 가진 학생으로 특히 문학에 큰 흥미를 가지고 있음. 1년 동안 SNS를 통해 약 30편가량의 자신이 창작한 시를 꾸준히 업로드하여 많은 학생들의 공감을 얻었고 이를 바탕으로 선배들과 본인이 지은 시에 대해 토론하고 자신이 지은 시를 교내 행사에서 낭송하는 등 활발한 창작활동을 했음. 국제 학술 심포지엄에서도 오픈마이크를 신청해 뛰어난 퍼포먼스로 발표에 생동감을 부여함. 국문학자, 기자를 자신의 진로로 희망하고 있고 뛰어난 언어적 소질과 특유의 자신감, 뚜렷한 주관, 맑고 순수한 마음으로 사회 정의를 이끌어 갈 뛰어난 언론인으로 성장할 것을 확신함.</t>
+  </si>
+  <si>
+    <t>활발하며 긍정적인 에너지가 넘치는 학생으로 활짝 웃는 미소로 항상 주변 분위기를 밝게 만들어주는 학생임. 학급 부회장으로서 회장을 도와 학급행사를 추진했으며 적극적이고 추진력이 있어 항상 성공적으로 학급 행사를 이끌었음. 또한 적극적이고 다재다능한 학생으로 교내 거의 모든 행사에 참여하여 영상 기획, 촬영, 편집 맡았으며 그 외에도 대토론회 행사 패널, 체육준비 위원회, 국제학술심포지엄 등 누구보다 열심히 학교행사에 참여한 학생임. 또한 자신의 주관이 뚜렷하고 확신이 있으며 자신감 넘치는 성격으로 교사와 학생들 간의 소통에서 다른 학생들을 대표해 논리정연하게 학생들의 의견을 대변함. 담임으로서 1년간 지도하면서 가장 기억에 남은 학생이었으며 어디에 있더라도 특유의 긍정적인 에너지로 주변을 환하게 비추는 빛과 같은 사람이 될 것이라 기대함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다재다능하여 자신이 참여한 활동에서 본인의 끼와 존재감을 드러내는 학생임. </t>
+  </si>
+  <si>
+    <t>밴드부 건반으로서 꾸준하게 교내 축제 및 행사에 꾸준하게 참여하여 주변 친구들에게 활력을 불어넣었으며 국제학술심포지엄에서는 팀 내 리더를 맡아 주제 선정, 연구 논문 작성, 프레젠테이션 자료 제작 등의 역할을 담당했음. 1학기 동안 아침독서활동에서 읽은 책들 중 ‘앵무새 죽이기’라는 책을 선정해 해당 책을 판매, 홍보하는 UCC를 제작함. 하나독서모임에서는 발제자를 참여해 ‘국가란 무엇인가’라는 주제로 하나독서모임을 진행했고 어떠한 활동에 참여하더라도 적극적으로 참여해 주도적인 역할을 수행하는 학생임.</t>
+  </si>
+  <si>
+    <t>자신의 진로에 대해 고민이 많았던 학생으로 학기 초에는 광고/홍보 분야에 관심이 있었으나 학부모 진로의 날, 교내 활동을 통해 방송/미디어에 흥미를 갖게 되었고 교내 다양한 행사에서 영상 기획 및 편집을 맡으며 방송 PD에 대한 꿈을 갖게 됨. 이외에 어문계열에도 흥미를 가지고 있으며 특히 중국어 학습에 흥미를 느껴 중국어 연극, 뮤직비디오 촬영 등을 했으며 2학년 때에도 중국어 과목을 수강하여 본인의 학습의지를 이어나갈 계획임.</t>
+  </si>
+  <si>
+    <t>다재다능하며 밝은 에너지를 가진 학생으로 장래 주변 사람들을 웃고 행복하게 만들 수 있는 더 나아가 사회에 활력과 자신의 긍정적인 에너지를 불어넣을 수 있는 인재로 성장할 것이라 기대하며 꼭 그렇게 될 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>온순하고 순수한 마음을 가진 학생으로 활동적이고 긍정적인 에너지가 넘치는 학생임. 막내로서 특유의 맑고 순진한 기운이 느껴지고 주변 친구들과의 관계도 순탄하고 화목함. 활발하고 끼가 많은 학생으로 교내 학교, 축제 홍보 영상, 교육 영상 등에 자주 출현해 개성 있고 멋진 연기를 선보임. 겉으로는 장난기어리고 마냥 철부지 아이 같은 모습이지만 그 내면을 들여다보았을 때 성숙하고 깊은 생각을 지니고 있는 학생임. 이레지역 봉사활동에서 누군가를 가르친다는 것은 함께 손을 잡고 걸어 나가는 것이라는 것을 깨닫고 지식을 전달하기에 앞서 아이들을 이해하고자 노력하는 어른스러운 모습을 보임. 자신의 주변을 둘러싼 관계에 대해 항상 깊이 있는 고민을 해왔으며 특히 조부상을 겪고 삶과 죽음, 관계에 대해 생각하고 내면적으로 더욱 성숙해짐. ‘외유내강’이라는 단어가 무척이나 잘 어울리는 학생으로 주변사람을 따뜻하게 배려하고 존중하며 그 안에서 스스로에 대해 고민하고 성숙하는 섬기는 리더로 성장할 것이라 기대함.</t>
+  </si>
+  <si>
+    <t>1학기 동안 학업에서 가장 뛰어난 발전을 보인 학생임. 결과에 주목하는 학습에서 학문 자체를 즐기고 그에 대해 깊이 고민하는 학습으로 발전했으며 처음에는 다소 부족했던 학습계획도 시간이 지남에 따라 철저하고 빈틈없는 계획으로 바뀌어 2학기에 뛰어난 학업 성취를 이룸. 수학과 경제에 흥미를 가지고 있으며 교과교사로서 1학기 동안 수학을 지도하면서 참신한 생각과 비판적인 사고가 인상 깊었던 학생임. 어떠한 수학적 사실을 밝혀냄에 있어서 완벽한 논리를 추구하는 학생이며 조금이라도 의심이 가는 부분은 스스로 충분히 고민하고 교사를 통해 반드시 해결하고자 하는 과제집착력이 돋보이는 학생임. 경제 스터디 모임에서 활동하면서 미시, 거시 경제 이론, 경제사 등을 학습하였으며 경제 교과에서도 매우 뛰어난 성취를 보임.</t>
+  </si>
+  <si>
+    <t>끊임없는 고민과 자아성찰로 내면적인 성숙을 이뤘으며 자신의 진로에 대한 흥미와 확신이 있고 학업 면에서 일취월장한 모습을 보인 학생으로 앞으로도 지금처럼 맑고 총기 있는 눈으로 학문을 바라보고 세상을 변화시킬 학문적 성취를 이룰 인재가 될 것이라 기대함.</t>
+  </si>
+  <si>
+    <t>차분하고 예의바르며 건강한 생활 습관을 갖췄으며 준법정신이 돋보이는 학생임. 1년의 시간 동안 여러 팀 단위 교내 활동을 하면서 타인을 배려하고 존중하는 것을 배웠으며, 자신의 성취에는 보이지 않는 주변 사람들의 도움이 있었다는 것을 깨닫고 인성적으로 성장하는 모습을 보임. 고마움을 표현할 줄 알고 타인과의 다름을 인정하고 서로 배려하며 존중할 줄 아는 따뜻한 마음을 가진 학생으로 성장함.</t>
+  </si>
+  <si>
+    <t>조용히 자신의 목표를 향해 나아가는 학생으로 다른 사람 눈에 띄지는 않지만 담임교사로서 지켜보았을 때 누구보다 뚜렷한 목표를 가지고 있고 이를 향해 꾸준하게 전진하는 학생임. 학문에 대해 의욕적이고 지적호기심이 풍부하며, 자신의 진로에 대해 다각적인 접근을 함. 경제, 경영 분야에 학기 초부터 큰 흥미를 가져 왔으며 교내 경제·경영 디플로마에 참여해 관련 지식을 확장하고 지식의 축적이 가져다주는 통찰력과 이를 기반으로 한 창의성이 무엇인지에 대해 고민함. 또한 고전 읽기 스터디를 통해 여러 시대의 사상가들의 생각을 접하고 그 관점에서 스스로를 고찰하여 내면적 성숙을 이룸. 이 외에도 법학 스터디 모임에서 우리나라의 사법 체계에 대해 연구하고 판례를 공부하면서 법이 추구하는 진정한 가치에 대해 고민하는 시간을 가짐. 학업에 있어서 철저한 계획성과 자기반성이 이루어지는 학생으로 매번 시험 전, 후로 담임교사와 상담하며 자신이 부족했던 부분이 무엇일지, 학업계획에 부족한 부분이 있진 않은지에 대해 오랜 시간 상담했으며 항상 이전보다 발전한 모습으로 찾아오는 학생임. 국제 학술 심포지엄에서 주제 선정, 제안서 작성, 한계점 등을 선정하는 과정에서 기본적인 틀을 짜고 구성원들의 의견을 반영하여 계획을 수립하고 리더를 자처하기도 함. 경제, 경영 외에도 지리 분야에 관심이 많아 취미활동으로 지도 연구를 하고 있으며 ‘세계 지리’ 과목에서 매우 뛰어난 성취를 보였음.</t>
+  </si>
+  <si>
+    <t>학기 초의 우려를 딛고 내면적으로 성숙해지는 모습을 보였으며, 자신의 진로에 대한 확신과 자질을 갖추고 있어 장래에 세상을 비추는 뛰어난 인재로 성장할 것이라 기대함.</t>
+  </si>
+  <si>
+    <t>밝고 활발한 성격으로 긍정정인 에너지가 넘치고 밝게 웃는 미소로 주변을 환하게 만드는 학생임. 따뜻한 마음을 지니고 가슴 속에 사랑이 넘치는 학생으로 아이들을 좋아하고 타인에게 도움을 주는 것을 좋아해 꾸준하고 진정성 있는 모습으로 멘토-멘티 봉사활동을 함. 친구들과 꽃의 그림자라는 프로젝트를 통해 장애를 가진 소년의 사랑 이야기를 다룬 영화를 창작해 사회의 소외된 자들을 이해하고 포용하는 마음을 기름. 교사에게 예의바르고 동시에 타인을 배려하고 공감하는 능력이 매우 뛰어나 1학기 학급회장으로서 학급 아이들의 의견을 경청하고 학급간의 소통이 활발히 이루어질 수 있도록 노력했으며 소규모테마 교육여행에서도 반 아이들과 잘 어울리지 않는 아이들을 모아 학급 내 활동에 참여할 수 있도록 챙기는 모습을 보였음. 1년 동안 지도하면서 담임으로써 가장 고마움을 많이 느꼈던 학생으로 앞으로도 밝은 에너지와 고운 마음으로 주변을 따뜻하게 해줄 수 있는 사람이 될 것이라 기대함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">다양한 분야에서 끼와 재능을 보인 학생임. 밴드부 보컬, 교내 합창단원으로서 교내 축제 및 발표회에 꾸준히 참여했으며 맑고 깨끗한 목소리로 음악을 표현함. Hana in Physics 라는 스터디 모임을 창설해 모임을 이끌었으며 교내 유일 비동아리팀으로 과학의 날 행사에 체험 부스 참가팀으로 선발됨. 뛰어난 문학적 소질을 갖추고 있고 교내 학술제에서 한반도의 역사와 한국 문단과의 연계성이라는 주제로 발표했고 문학에 대한 학생의 남다른 이해도를 느낄 수 있었음. 이 밖에도 그림 그리는 것을 좋아하여 종종 담임교사와 친구들의 모습을 그려줬으며 훌륭한 미적 감각을 지니고 있는 학생임. </t>
+  </si>
+  <si>
+    <t>다양한 분야에서 뛰어난 자질을 갖춘 만큼 자신의 진로에 대한 고민이 많았던 학생임. 교사, 기자, 미술가, 정치외교학자 등 다양한 진로에 고민했으며 졸업생 전공 탐색의 날, 학부모 진로 특강, 담임교사와의 상담 등 여러 진로 설명회에 참여했음. 학생은 순수하고 따뜻한 마음과 긍정적인 에너지, 다양한 분야에서 뛰어난 재능과 성실함을 두루 갖추고 있어 어떠한 분야에 있던 타인에게 행복감을 주고 스스로 행복해질 수 있는 아름다운 사람으로 성장할 것이라 기대하고 확신함.</t>
+  </si>
+  <si>
+    <t>차분하고 조용한 성격으로 감수성이 풍부하고 공감 능력이 뛰어난 학생임. 사람들 간의 관계, 사회와 인간의 관계에 대해 철학적으로 고찰하는 것을 좋아하며 현상을 날카롭게 비판함과 동시에 그것을 이해하고 품으려 노력하는 따뜻한 마음을 지님. 다른 사람을 도와주는 것을 좋아해 꾸준하게 멘토-멘티 봉사활동을 했으며 아이들을 통해 주어진 역할 속에서 관계의 중요성에 대해 깊게 고민함. 자신의 주관이 뚜렷하고 확신이 있으며 동시에 끊임없이 자기 반성과 성찰이 이루어지는 학생으로 자신의 생각에 대해 담임교사, 주변 친구들과 이야기 나누는 것을 좋아함. 교내 학생생활규정 재개정 대토론회, 학생 자치대토론회에 참여해서 자신의 의견과 생각을 분명히 전달해 학생부장교사, 학생자치담당 교사 및 여러 학생들의 공감을 얻었음. 날카로운 시각, 타인에 대한 공감과 이해, 따뜻한 마음을 지니고 있는 학생으로 장래에 사회적 약자들을 돕고 세상을 아름답게 만들 수 있는 인재로 성장할 것이라 기대함.</t>
+  </si>
+  <si>
+    <t>진지하고 깊이 있는 학업태도를 가지고 있는 학생임. 결과를 내는 학습보다는 학문 그 자체에 대해 깊이 고민하는 것을 좋아하며 특히 사회학에 관심이 많음. 스터디 모임을 통해 ‘젠더와 사회’라는 책을 통해 사회 이슈에 대해 토론하였고 이 과정에서 사회적 소수자들의 인권, 개인의 다양성에 대해 배움. 학술제에서 ‘오버워치’라는 게임 안에서 다양성과 가치중립적인 용어가 부정적으로 대상화되고 소비된다는 주제로 발표했으며 ‘인권’이라는 다소 딱딱하고 어려운 주제를 게임에 매개시켜 거부감 없이 접근하여 많은 학생들의 공감과 찬사를 받았음. 비록 학업적으로 괄목할 만한 성취를 이루진 못했으나 자신의 진로에 대해 누구보다 뚜렷한 확신과 동기를 가지고 있어 조금씩 발전하여 미래에 사회적 약자들을 돌보고 세상을 아름답게 만들 수 있는 사람이 될 것이라 확신함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">조용해 보이는 첫인상과는 달리 발랄한 모습과 은근한 장난끼를 가지며 교우관계 속에서 매력을 뽐내는 학생임. 활동적인 성격으로 음악을 좋아해 밴드부 건반으로서 꾸준하게 교내 축제 및 행사에 꾸준하게 참여하여 주변 친구들에게 활력을 불어넣었으며 1인 2기 수업으로 재즈피아노, 첼로, 방송 댄스 등을 수강하면서 학생들 앞에서 공연을 선보였음. 다양한 분야에 관심이 많은 학생으로 인권문제에 많은 관심을 갖고 교내 학생들을 대상으로 직접 기획하고 촬영한 인권 캠페인 영상을 아침방송에 내보내며 학생들의 인권 교육에 이바지 함. 특히 서울특별시 학생인권조례의 조항들을 구체적인 상황과 접목시켜보며 일상 생활 속에서 인권조례의 내용들을 쉽게 연결시켜 볼 수 있도록 하였고, 언어폭력에 심각성을 알리기 위해 장난이라는 이름하에 행해지는 각종 비하발언과 차별적 언행들의 대표적이며 구체적인 사례들을 제시하여 학생들 사이에 만연한 무의식적 언어폭력에 대한 경각심을 일깨워주는 활동을 함. 생명과학 스터디 모임을 통해 생물에 관련된 최근 이슈 관련 기사를 읽고 토론 및 관련 내용을 학습했으며 뇌 과학에도 관심이 많아 뇌의 용량과 뇌의 교통정체 등에 탐구함. </t>
+  </si>
+  <si>
+    <t>건강한 생활습관을 가진 학생으로 매일 아침마다 운동모임으로 하루를 시작하고 1년 간 벌점이 0점일 정도로 준법정신이 뛰어나 타의 모범이 되는 학생임. 꼼꼼하고 성실한 학습태도를 지니고 있어 자신만의 학습방법을 만들어 철저하게 학습을 계획하고 시간을 효율적으로 사용하기 위해 급식시간에 줄을 서서 기다리는 시간에도 영어 퀴즈 문제를 만들어 학습준비를 하는 등 계획성, 성실함을 두루 갖춘 학생임. 비록 학업적으로 괄목할 만한 성취를 이루진 못했으나 특유의 성실함과 꾸준함으로 조금씩 발전하여 미래에 음악과 과학을 융합해 사람들을 치유하고 건전한 사회를 만드는 인재가 될 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>착하고 온순한 성격으로 주관이 뚜렷하고 확신이 있어 자신의 생각을 논리적으로 표현하며 예의를 가지고 말 한마디 한마디를 정성스럽게 생각을 통해 하는 차분함과 신중함을 모두 겸비한 학생임. 또한 학교 행사에도 적극적이어서 생활관 자치위원회 8기 대표로 불금파티, 부모님께 편지쓰기 행사, 학생자치대토론회를 주관하고 교장선생님과 간담회를 통해 학생 건의 사항과 의견들을 학교에 전달해 학교, 학생간의 소통의 중심적인 역할을 수행함. 타인에 대한 공감능력이 뛰어나고 그 중요성을 알고 있어 주변 친구들의 의견을 경청하고 존중하여 생활관 자치회 대표로서 행사를 기획할 때 모든 학생들이 뜻깊은 시간을 보낼 수 있도록 노력함.</t>
+  </si>
+  <si>
+    <t>경제학과 정치, 외교에 관심이 많아 경제학 스터디 모임을 통해 TESAT 입문서 핵심 요약집 교재로 구성원들과 토론, 발표를 통해 경제학의 기초적인 지식을 습득했으며 동아리 활동으로 경제효과를 중심으로 한 정부 정책에 대한 모의 토론이라는 주제로 학술활동을 꾸준히 진행했음. 이 밖에 현 정부의 일자리 정책과 노후 원전 폐쇄 및 신규 원전 건설 중단, 청정 신재생 에너지 발전량 비중 확대 정책을 발표한 탈원전 선언에 대한 찬반 토론 등 사회 이슈에 대해 지속적으로 관심을 갖고 탐구했으며 ‘미래 우리 사회에 변화할 것들’이라는 주제로 포럼을 열어 급진적인 기술 변혁이 우리의 가치관과 생활양식에 미치는 영향에 대한 발표를 진행함. 학업적으로 꾸준함과 성실함을 바탕으로 뛰어난 성취를 보이고 있으며 단순히 결과를 내는 학습이 아닌 자신의 진로와 연결지어 의미 있고 깊이 있는 학습을 추구하고 있어 앞으로도 높은 학업 성취를 이어나갈 것이라 기대함. 조용하지만 강하고 동시에 타인을 이해하고 공감하는 따뜻한 품성을 지니고 있어 장래 정치, 외교학자로서 국가의 입지를 건실히 하고 동시에 국민을 위해 소통하고 공감하는 존중하는 리더로 성장할 것을 확신함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">활발하고 밝은 성격을 지닌 학생으로 밝게 웃는 모습과 은근한 장난끼가 매력적인 학생임. 교사를 대할 때 항상 예의바르게 인사하며 교사에 대한 존경심이 크고, 교사의 지도 방향에 대해 다른 어떤 학생들보다 높은 집중과 강한 실행능력으로 발전을 거듭하는 학생임. 처음 학생과의 상담에서 말수가 적고 학교에 잘 적응하지 못하는 모습이 보여 많은 걱정을 했으나 학생스스로 다양한 행사와 활동에 참여하면서 학기 초 소극적이었던 모습과 달리 지금은 밝은 웃음과 긍정적인 에너지로 주변사람들에게 활력을 불어넣는 학생으로 성장했음. 어떤 분야에 있더라도 지금처럼 주변 사람들을 행복하게 해주고 스스로도 행복한 삶을 사는 사람으로 성장하길 기대함. </t>
+  </si>
+  <si>
+    <t>음악을 좋아해 밴드부 보컬로서 교내 축제 및 발표회에 꾸준히 참여했으며 맑고 깨끗한 목소리로 음악을 표현함. 인권문제에 많은 관심을 갖고 교내 학생들을 대상으로 직접 기획하고 촬영한 인권 캠페인 영상을 아침방송에 내보내며 학생들의 인권 교육에 이바지 함. 특히 서울특별시 학생인권조례의 조항들을 구체적인 상황과 접목시켜보며 일상 생활 속에서 인권조례의 내용들을 쉽게 연결시켜 볼 수 있도록 하였고, 언어폭력에 심각성을 알리기 위해 장난이라는 이름하에 행해지는 각종 비하발언과 차별적 언행들의 대표적이며 구체적인 사례들을 제시하여 학생들 사이에 만연한 무의식적 언어폭력에 대한 경각심을 일깨워주는 적극적인 활동을 함.</t>
+  </si>
+  <si>
+    <t>심화 생명과학을 수강하면서 생명과학에 흥미를 느끼고 뇌과학 동아리에서 인간의 신체에 대한 다양한 지식을 쌓으며 생명과학 연구원을 자신의 진로로 정해 꾸준한 노력을 해옴. 학업적으로 학기초 실패와 좌절을 겪었지만 그 가운데서 배움을 얻고 자신이 부족한 것을 보완해 점진적으로 발전해가 1년 동안 큰 학업적인 발전을 이루었음. 자신이 어려운 시간을 보내고 실패와 좌절을 겪은 만큼 타인의 아픔을 이해하고 공감할 수 있는 학생이므로 장래에 생명공학 연구원이 되어서 인류가 앓고 있는 병을 기술적으로 치유하고 세상 사람들의 마음의 병까지 치유해 줄 수 있는 사람이 될 것이라 확신함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">매사 웃는 얼굴을 하고 있는 긍정적인 학생이며, 사교성이 뛰어나 주변에 친구가 많음. 상대방을 존중하면서도 재치 있는 말과 행동으로 주변을 즐겁게 하여 친구들의 호감을 얻고 있어 교우관계가 좋은 학생임. 무엇이든지 스스로 해결하려는 의지가 강한 학생으로 담임교사와 상담시간에도 말 수가 적어 학기 초에 걱정이 많이 들었으나 1년간 지켜보면서 내면적으로 누구보다 성숙하고 어른스러운 생각을 가지고 있는 학생임을 알 수 있었음. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">인공지능과 컴퓨터에 관심을 갖고 있어 교과 수업과 여러 활동들을 통해 자신의 흥미를 키워나갔으며 이 외에도 다른 분야에도 흥미를 가지고 있어 교내 다양한 행사에 적극적으로 참여함. 국제 학술 심포지엄에서 코디네이터로 참가해 다른 나라의 학교와 문화에 대해 이야기하며 세상을 바라보는 다양한 시각을 키웠으며 여러 심포지엄 세션을 통해 News Media를 바라보는 새로운 관점에 대해 고찰함. 또한 동아리활동으로 사진촬영 부스를 운영했고 2학기 음악 무용 발표회에서 가야금, 해금 합주를 했음. 어떠한 활동을 하던 진지하고 열심인 모습을 보여 주변 친구들과 담당교사들에게 항상 좋은 인상을 심어주었고 조용히 자신이 맡은 역할을 책임감 있게 수행해 나가는 학생임. </t>
+  </si>
+  <si>
+    <t>자신의 진로에 대해 깊은 흥미와 확신을 가지고 있어 진로특강, 졸업생 전공탐색의 날에 참여해 ‘인공 지능과 인간의 지성’이라는 강연을 듣고 미래 사회의 인공지능의 역할에 대해 고민했으며 컴퓨터 공학부, 산업공학과에 대해 알아보는 시간을 가짐. 학업에 있어서 매우 뛰어난 모습을 보이고 있지만 겸손하고 현학적이지 않은 태도를 지녀 스스로 항상 부족하다고 느기고 부단히 노력하는 모습이 결실을 맺은 학생임.</t>
+  </si>
+  <si>
+    <t>자기주도성이 매우 뛰어나고 자신의 진로에 대한 확신이 있어 미래사회를 이끌어갈 연구원이 될 수 있을 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>매사에 열심히 하려는 모습이 기특한 학생으로 항상 밝은 모습으로 자신을 발전시키고자 끊임없이 노력하는 긍정적인 의지가 돋보임. 활발한 성격으로 친구들과 운동하는 것을 즐기고 매사 웃는 얼굴을 하고 있는 긍정적인 학생이며, 사교성이 뛰어나 주변에 친구가 많음. 상대방을 존중하면서도 재치 있는 말과 행동으로 주변을 즐겁게 하여 친구들의 호감을 얻고 있어 교우관계가 좋은 학생임.</t>
+  </si>
+  <si>
+    <t>노력과 꾸준함이라는 단어가 잘 어울리는 학생으로 1년 동안 꾸준히 발전해옴. 매번 시험, 수행평가 후에 담임교사와 상담해 자신이 부족한 부분을 찾아 개선하려 노력했고 자신이 기대했던 결과를 얻지 못하더라도 강한 의지와 인내심으로 묵묵하게 앞으로 나아가는 학생임. 밝고 긍정적인 성격을 지녔으며 강한 의지와 꾸준함을 가지고 있어 앞으로도 지속적으로 발전할 것이라 기대함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">평소 자동차에 관심이 많아 자동차 공학 분야를 진로로 정하고 과학 과목 학습과 탐구활동을 활발하게 진행함. 과학의 날에 참석하여 동아리 부원들과 골전도의 원리를 이용한 체험활동을 기획했으며 아두이노 제품을 직접 코딩하여 사격 게임을 만들어 축제에 참여함. AP물리를 수강하면서 다른 과목시간에서는 느낄 수 없었던 재미를 찾고 자신의 진로에 대해 확신을 갖게 됨. 물리 특히 역학에 꾸준하고 깊이 있는 학습을 하기로 계획함. 과목 자체의 흥미 외에도 노력없이는 이룰 것이 없으며 노력한다면 원하는 것을 이룰 수 있다는 것을 느끼게 된 소중한 시간이었다고 함. </t>
+  </si>
+  <si>
+    <t>자신의 진로에 대한 흥미와 확신이 있고 노력의 중요성을 알고 꾸준함과 성실함을 갖고 발전해나가는 학생으로 미래에 자신의 분야를 이끌어 갈 수 있는 인재로 성장할 수 있으리라 확신함.</t>
+  </si>
+  <si>
+    <t>밝고 활발한 성격으로 긍정정인 에너지가 넘치고 밝게 웃는 미소로 주변을 환하게 만드는 학생임. 따뜻한 마음을 지니고 가슴 속에 사랑이 넘치는 학생으로 동물들을 좋아해 동물보호 동아리에서 활동함. 학급 활동으로 ‘서로에게 힘내라는 비밀 편지 써주기’ 프로젝트를 진행하여 학급 친구들이 활기찬 아침을 맞을 수 있도록 노력했으며 ‘구름빵’프로젝트를 만들어 점심시가마다 5~10분씩 구름과 하늘을 감상하고 사진과 감상을 채팅방에 공유함. 구름다리 비정규직 활동에 몇 차례 참석하여 학교 구름다리에 응원의 문구를 적어 서로에게 긍정적인 영향을 주고받을 수 있는 분위기를 형성하기 위해 노력함. 연극 동아리에서 학교 폭력 피해자의 역할을 맡아 잘못된 소문과 주변인들의 무관심이 한 학생의 극단적인 선택을 하게 만드는 사건을 연극으로 재구성하여 공연했고, ‘비상구는 없다’라는 연극을 통해 사람에게 가장 힘이 되는 것은 사람이라는 메시지를 전달하고 많은 학생들의 공감을 받음. 따뜻한 마음과 활발할 성격, 긍정적인 에너지로 주변사람들을 도와주고 그것에 행복을 느끼는 학생으로 앞으로도 어떠한 곳에 있던 주변을 따뜻하게 비추는 햇살 같은 사람이 될 것이라 기대함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어렸을 적부터 동물을 좋아해 수의사라는 직업에 확고한 생각이 있어 생명 과학, 동물의 권리에 대해 학습하고 활발한 활동을 진행함. 유전 및 생명과학 스터디 모임에서 ‘유전학 입문’이라는 책으로 기본적인 유전학 지식을 습득하고 유전학과 관련된 영화를 분석하는 활동을 함. 동물보호 동아리에서는 가축들의 권리, 동물보호법 개정안에 대해 토론하고 시민동물보호단체에서 주관하는 다양한 캠페인에도 참여함. 또한 투명한 유리창에 새들이 부딪혀 희생되는 윈도우킬을 막고자 노력하는 새살림프로젝트에 참여해 도트필름 시공을 사고 발생 지역에 보다 전면적으로 시행하기 위해 기금 마련 및 홍보 활동을 했음. </t>
+  </si>
+  <si>
+    <t>자신의 진로에 대한 뚜렷한 확신이 있고 타인과 동물을 이해하고 배려하는 마음이 뛰어나 있어 후에 아픈 동물을 치료할 뿐만 아니라 마음으로 돌보고 사랑하는 따뜻한 수의사가 될 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>매사에 열심히 하려는 모습이 기특한 학생으로 항상 밝은 모습으로 자신을 발전시키고자 끊임없이 노력하는 긍정적인 의지가 돋보임. 착하고 온순한 성격으로 매사 웃는 얼굴을 하고 있는 긍정적인 학생이며, 사교성이 뛰어남. 자신의 주관이 뚜렷하고 확신이 있어 담임교사와 상담시간에도 본인의 생각을 분명히 전달하고 표현하는 능력이 뛰어났음.</t>
+  </si>
+  <si>
+    <t>교내 다양한 진로 활동에 참여해 자신의 진로에 대해 끊임없이 고민했음. 입학했을 당시 수의사가 되고자 희망했지만 그 외에도 법학, 건설 공학, 사회학에도 큰 관심을 가짐. 학부모 진로특강을 들으며 법조인으로서 갖춰야할 기본 정신 및 사법기관에서 이루어지는 업무 등 이론적인 부분과 실무적인 부분에 대해 배웠으며 건설 공학부 선배의 강연을 듣고 과학 과목에 대한 기초적인 지식에서 더 나아가 심화과목을 수강하고자 계획함. 학술제에서는 자본주의 사회에서 오랫동안 고착되어온 빈부격차에 대해 오늘날 수저계급론에 따라 이론적 배경, 빈부의 양극화를 극복할 수 있는 방안에 대해 토의함. 그 밖에도 인권문제에 많은 관심을 갖고 교내 학생들을 대상으로 직접 기획하고 촬영한 인권 캠페인 영상을 아침방송에 내보내며 학생들의 인권 교육에 이바지 함. 다양한 분야에 관심이 있으며 진지한 끊임없이 배워나가고자 하는 진취적인 태도를 지닌 학생임.</t>
+  </si>
+  <si>
+    <t>노력의 중요성을 알고 꾸준함과 성실함을 갖고 있으며 착하고 온순한 성격으로 장래에 동물을 치유하고 마음으로 돌보는 따뜻한 수의사가 될 수 있을 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>자신의 진로에 대한 고민이 누구보다 많았던 학생으로 다양한 활동에 참여했음. 졸업생 전공 탐색의 날에서 에너지 공학 분야에 대한 강연을 듣고 과학 과목 학습에 힘썼으며 인공지능의 논리적 체계에 대해 ‘괴델, 에셔, 바흐’라는 책을 교재로 스터디 모임을 했음. 학부모 진로 특가의 날에서는 재료공학과 전자 통신 컴퓨터에 관한 강연을 들었고 과학의 날에 참여해 골전도를 이용한 체험활동 부스를 운영했음. 이 밖에도 학생회로서 교내 모든 행사에 참여해 기획 및 운영에 힘썼음. 다양한 진로 활동, 자율 활동에 참여해 견문을 넓히고 자신의 진로에 대해 끊임없이 고민을 이어나갔으며 학생회 담당교사로서 1년간 지켜보면서 누구보다 책임감이 강하고 조용히 자신의 역할을 성실하게 수행해 나가는 학생으로 어떠한 분야에 있던 자신의 역할을 다하고 나아가 그 분야를 이끌 수 있는 리더로 성장할 것이라 확신함.</t>
+  </si>
+  <si>
+    <t>씩씩하고 활발하며 도전하기를 좋아하고 자신감이 넘치는 학생임. 개방적이고 자유로운 성격으로 주변 친구들과 폭넓은 교우관계를 형성하고 있음. 간의 관계, 사회와 인간의 관계에 대해 철학적으로 고찰하는 것을 좋아하며 현상을 날카롭게 비판함과 동시에 그것을 이해하고 품으려 노력하는 따뜻한 마음을 지님. 다른 사람을 도와주는 것을 좋아해 꾸준하게 멘토-멘티 봉사활동을 했으며 아이들을 통해 주어진 역할 속에서 관계의 중요성에 대해 깊게 고민함. 자신의 주관이 뚜렷하고 확신이 있으며 동시에 끊임없이 자기 반성과 성찰이 이루어지는 학생으로 자신의 생각에 대해 담임교사, 주변 친구들과 이야기 나누는 것을 좋아함.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공학 분야에 관심이 있어 친구들과 과학 융합 스터디 모임을 가졌으며 수학 문제에 대한 다양한 접근 방식에 대해 토론하고 영화 ‘빅 히어로6’에서 볼 수 있는 과학적 원리 중 공중풍력발전기에 대해 조사하여 기본적인 발전기의 원리, 효율의 극대화 방법에 대해 탐구하고 이를 포함한 여러 스터디 모임 활동을 블로그에 포스팅함. </t>
   </si>
 </sst>
 </file>
@@ -1446,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:C286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2822,6 +3153,484 @@
         <v>322</v>
       </c>
     </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B241" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B242" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B243" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B244" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B245" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B246" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B247" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B248" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B249" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B250" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B251" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B252" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B253" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B254" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B255" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B256" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B260" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B261" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B262" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B263" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B264" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B265" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B266" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B267" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B269" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B270" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B271" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B278" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
